--- a/race_est_data.xlsx
+++ b/race_est_data.xlsx
@@ -406,20 +406,20 @@
         </is>
       </c>
       <c r="B2">
-        <v>-3.141980470615434</v>
+        <v>-3.150247039542005</v>
       </c>
       <c r="C2">
-        <v>0.6332544634829582</v>
+        <v>0.6333883680124404</v>
       </c>
       <c r="D2">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E2">
-        <v>-4.961639675359335</v>
+        <v>-4.973642079072931</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.6280e-06</t>
+          <t>7.1779e-06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -440,20 +440,20 @@
         </is>
       </c>
       <c r="B3">
-        <v>-2.435248182624227</v>
+        <v>-2.434371708935029</v>
       </c>
       <c r="C3">
-        <v>0.8131135274714404</v>
+        <v>0.8133224886095629</v>
       </c>
       <c r="D3">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E3">
-        <v>-2.994967000730119</v>
+        <v>-2.99311987929508</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.3298e-02</t>
+          <t>2.3429e-02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -474,20 +474,20 @@
         </is>
       </c>
       <c r="B4">
-        <v>-2.200763077087754</v>
+        <v>-2.395781728860122</v>
       </c>
       <c r="C4">
-        <v>1.18848721317509</v>
+        <v>1.180152384249236</v>
       </c>
       <c r="D4">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E4">
-        <v>-1.851734753803812</v>
+        <v>-2.030061338548427</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.4419e-01</t>
+          <t>2.5198e-01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -508,20 +508,20 @@
         </is>
       </c>
       <c r="B5">
-        <v>-2.533047069089118</v>
+        <v>-2.530347892888183</v>
       </c>
       <c r="C5">
-        <v>0.6041581001930955</v>
+        <v>0.6043103066779116</v>
       </c>
       <c r="D5">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E5">
-        <v>-4.192689079695413</v>
+        <v>-4.187166535017945</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.8027e-04</t>
+          <t>2.8701e-04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -542,20 +542,20 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.7067322879912075</v>
+        <v>0.7158753306069756</v>
       </c>
       <c r="C6">
-        <v>0.6221762321171568</v>
+        <v>0.6223001707516062</v>
       </c>
       <c r="D6">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E6">
-        <v>1.135903706231788</v>
+        <v>1.150369812276205</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.8745e-01</t>
+          <t>7.7952e-01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -576,20 +576,20 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.9412173935276802</v>
+        <v>0.7544653106818831</v>
       </c>
       <c r="C7">
-        <v>1.06383226871622</v>
+        <v>1.05524922700105</v>
       </c>
       <c r="D7">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E7">
-        <v>0.8847422861721378</v>
+        <v>0.7149640969896984</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.0260e-01</t>
+          <t>9.5312e-01</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -610,20 +610,20 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.6089334015263161</v>
+        <v>0.6198991466538222</v>
       </c>
       <c r="C8">
-        <v>0.2963103164718177</v>
+        <v>0.2962773592513613</v>
       </c>
       <c r="D8">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E8">
-        <v>2.05505298896413</v>
+        <v>2.092293343710751</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.4040e-01</t>
+          <t>2.2380e-01</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -644,20 +644,20 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.2344851055364727</v>
+        <v>0.03858998007490744</v>
       </c>
       <c r="C9">
-        <v>1.182143197928343</v>
+        <v>1.173681469276008</v>
       </c>
       <c r="D9">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E9">
-        <v>0.198355923332637</v>
+        <v>0.0328794320137915</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.9966e-01</t>
+          <t>1.0000e+00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -678,20 +678,20 @@
         </is>
       </c>
       <c r="B10">
-        <v>-0.09779888646489132</v>
+        <v>-0.09597618395315344</v>
       </c>
       <c r="C10">
-        <v>0.592652259147747</v>
+        <v>0.5928032413213736</v>
       </c>
       <c r="D10">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E10">
-        <v>-0.1650190055894316</v>
+        <v>-0.1619022590686584</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9.9983e-01</t>
+          <t>9.9985e-01</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -712,20 +712,20 @@
         </is>
       </c>
       <c r="B11">
-        <v>-0.332283992001364</v>
+        <v>-0.1345661640280609</v>
       </c>
       <c r="C11">
-        <v>1.048788115693532</v>
+        <v>1.038981672413992</v>
       </c>
       <c r="D11">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E11">
-        <v>-0.3168266182932809</v>
+        <v>-0.1295173607012788</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9.9782e-01</t>
+          <t>9.9994e-01</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -746,20 +746,20 @@
         </is>
       </c>
       <c r="B12">
-        <v>-4.066069809074178</v>
+        <v>-4.059004038704365</v>
       </c>
       <c r="C12">
-        <v>1.116407321252914</v>
+        <v>1.116167836829816</v>
       </c>
       <c r="D12">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E12">
-        <v>-3.642102422358658</v>
+        <v>-3.6365534866449</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.5804e-03</t>
+          <t>2.6345e-03</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -780,20 +780,20 @@
         </is>
       </c>
       <c r="B13">
-        <v>-0.8465562567014583</v>
+        <v>-0.84730541416657</v>
       </c>
       <c r="C13">
-        <v>1.433493085995955</v>
+        <v>1.433250827774199</v>
       </c>
       <c r="D13">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E13">
-        <v>-0.5905548237181014</v>
+        <v>-0.5911773415700121</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9.7651e-01</t>
+          <t>9.7642e-01</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -814,20 +814,20 @@
         </is>
       </c>
       <c r="B14">
-        <v>-0.3221189096103392</v>
+        <v>-0.1554285906335949</v>
       </c>
       <c r="C14">
-        <v>2.095264861942581</v>
+        <v>2.079684756432325</v>
       </c>
       <c r="D14">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E14">
-        <v>-0.1537366065079206</v>
+        <v>-0.07473661099494275</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9.9987e-01</t>
+          <t>9.9999e-01</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -848,20 +848,20 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.7249592907025267</v>
+        <v>0.7226521957769414</v>
       </c>
       <c r="C15">
-        <v>1.065111365406072</v>
+        <v>1.06492597881968</v>
       </c>
       <c r="D15">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E15">
-        <v>0.6806417753566426</v>
+        <v>0.6785938273173686</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9.6066e-01</t>
+          <t>9.6108e-01</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -882,20 +882,20 @@
         </is>
       </c>
       <c r="B16">
-        <v>3.21951355237272</v>
+        <v>3.211698624537795</v>
       </c>
       <c r="C16">
-        <v>1.096876754448394</v>
+        <v>1.096628025592354</v>
       </c>
       <c r="D16">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E16">
-        <v>2.935164355809303</v>
+        <v>2.928703762429349</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.7890e-02</t>
+          <t>2.8430e-02</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -916,20 +916,20 @@
         </is>
       </c>
       <c r="B17">
-        <v>3.743950899463839</v>
+        <v>3.90357544807077</v>
       </c>
       <c r="C17">
-        <v>1.87550219045846</v>
+        <v>1.859578272196758</v>
       </c>
       <c r="D17">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E17">
-        <v>1.996239150511812</v>
+        <v>2.099172434112922</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.6819e-01</t>
+          <t>2.2081e-01</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -950,20 +950,20 @@
         </is>
       </c>
       <c r="B18">
-        <v>4.791029099776705</v>
+        <v>4.781656234481306</v>
       </c>
       <c r="C18">
-        <v>0.5223855902293337</v>
+        <v>0.522105039937751</v>
       </c>
       <c r="D18">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E18">
-        <v>9.171441918360314</v>
+        <v>9.158418074361833</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.6698e-12</t>
+          <t>1.6549e-12</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -984,20 +984,20 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.524437347091119</v>
+        <v>0.6918768235329751</v>
       </c>
       <c r="C19">
-        <v>2.084080566408911</v>
+        <v>2.068281599170942</v>
       </c>
       <c r="D19">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E19">
-        <v>0.2516396705309619</v>
+        <v>0.3345177096824291</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>9.9912e-01</t>
+          <t>9.9730e-01</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1018,20 +1018,20 @@
         </is>
       </c>
       <c r="B20">
-        <v>1.571515547403985</v>
+        <v>1.569957609943511</v>
       </c>
       <c r="C20">
-        <v>1.044826936442794</v>
+        <v>1.044648031045599</v>
       </c>
       <c r="D20">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E20">
-        <v>1.504091723318648</v>
+        <v>1.502857961041791</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.5992e-01</t>
+          <t>5.6073e-01</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1052,20 +1052,20 @@
         </is>
       </c>
       <c r="B21">
-        <v>1.047078200312866</v>
+        <v>0.8780807864105363</v>
       </c>
       <c r="C21">
-        <v>1.848979830893553</v>
+        <v>1.830911308717581</v>
       </c>
       <c r="D21">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E21">
-        <v>0.5663004986954598</v>
+        <v>0.4795867403460232</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>9.7989e-01</t>
+          <t>9.8921e-01</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1086,20 +1086,20 @@
         </is>
       </c>
       <c r="B22">
-        <v>-6.692415691091149</v>
+        <v>-6.690373820345723</v>
       </c>
       <c r="C22">
-        <v>1.443612307617206</v>
+        <v>1.443123057055332</v>
       </c>
       <c r="D22">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E22">
-        <v>-4.635881569988483</v>
+        <v>-4.636038338960031</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.7659e-05</t>
+          <t>3.7629e-05</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1120,20 +1120,20 @@
         </is>
       </c>
       <c r="B23">
-        <v>-5.635145440818701</v>
+        <v>-5.635361932811954</v>
       </c>
       <c r="C23">
-        <v>1.853631933822764</v>
+        <v>1.853088082146513</v>
       </c>
       <c r="D23">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E23">
-        <v>-3.040056301359291</v>
+        <v>-3.041065336885805</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.0288e-02</t>
+          <t>2.0224e-02</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1154,20 +1154,20 @@
         </is>
       </c>
       <c r="B24">
-        <v>-4.725782921306251</v>
+        <v>-4.677612648561678</v>
       </c>
       <c r="C24">
-        <v>2.709360718831169</v>
+        <v>2.688879686712916</v>
       </c>
       <c r="D24">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E24">
-        <v>-1.744242798111052</v>
+        <v>-1.739613963271051</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.0703e-01</t>
+          <t>4.0984e-01</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1188,20 +1188,20 @@
         </is>
       </c>
       <c r="B25">
-        <v>-5.339299220807001</v>
+        <v>-5.339965926543153</v>
       </c>
       <c r="C25">
-        <v>1.377282150351322</v>
+        <v>1.376871097143268</v>
       </c>
       <c r="D25">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E25">
-        <v>-3.876692382490424</v>
+        <v>-3.878333954153379</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.0408e-03</t>
+          <t>1.0340e-03</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1222,20 +1222,20 @@
         </is>
       </c>
       <c r="B26">
-        <v>1.057270250272448</v>
+        <v>1.055011887533769</v>
       </c>
       <c r="C26">
-        <v>1.418357576591165</v>
+        <v>1.417859515859429</v>
       </c>
       <c r="D26">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E26">
-        <v>0.7454186925228384</v>
+        <v>0.7440877433433719</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>9.4571e-01</t>
+          <t>9.4605e-01</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1256,20 +1256,20 @@
         </is>
       </c>
       <c r="B27">
-        <v>1.966632769784898</v>
+        <v>2.012761171784045</v>
       </c>
       <c r="C27">
-        <v>2.425188364109176</v>
+        <v>2.404298164179613</v>
       </c>
       <c r="D27">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E27">
-        <v>0.8109195965515381</v>
+        <v>0.8371512326429086</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>9.2734e-01</t>
+          <t>9.1905e-01</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1290,20 +1290,20 @@
         </is>
       </c>
       <c r="B28">
-        <v>1.353116470284148</v>
+        <v>1.35040789380257</v>
       </c>
       <c r="C28">
-        <v>0.6754902561285728</v>
+        <v>0.6750434804491192</v>
       </c>
       <c r="D28">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E28">
-        <v>2.00316208562244</v>
+        <v>2.000475425529802</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.6482e-01</t>
+          <t>2.6613e-01</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.9093625195124497</v>
+        <v>0.9577492842502764</v>
       </c>
       <c r="C29">
-        <v>2.694898446525114</v>
+        <v>2.674136241664482</v>
       </c>
       <c r="D29">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E29">
-        <v>0.3374385111561476</v>
+        <v>0.3581527632466989</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>9.9721e-01</t>
+          <t>9.9648e-01</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1358,16 +1358,16 @@
         </is>
       </c>
       <c r="B30">
-        <v>0.2958462200117005</v>
+        <v>0.2953960062688017</v>
       </c>
       <c r="C30">
-        <v>1.351052609621051</v>
+        <v>1.350653199604082</v>
       </c>
       <c r="D30">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E30">
-        <v>0.2189746112808151</v>
+        <v>0.2187060352393874</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1392,20 +1392,20 @@
         </is>
       </c>
       <c r="B31">
-        <v>-0.6135162995007493</v>
+        <v>-0.6623532779814747</v>
       </c>
       <c r="C31">
-        <v>2.390892633540176</v>
+        <v>2.367233885307304</v>
       </c>
       <c r="D31">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E31">
-        <v>-0.2566055417521281</v>
+        <v>-0.2798005224969526</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>9.9905e-01</t>
+          <t>9.9866e-01</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1426,20 +1426,20 @@
         </is>
       </c>
       <c r="B32">
-        <v>-6.606470479477816</v>
+        <v>-6.643931578199337</v>
       </c>
       <c r="C32">
-        <v>1.546514481197406</v>
+        <v>1.548943683064123</v>
       </c>
       <c r="D32">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E32">
-        <v>-4.27184521050374</v>
+        <v>-4.289330626311926</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.9863e-04</t>
+          <t>1.8392e-04</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1460,20 +1460,20 @@
         </is>
       </c>
       <c r="B33">
-        <v>-2.101760573359649</v>
+        <v>-2.097788711794327</v>
       </c>
       <c r="C33">
-        <v>1.985760729068953</v>
+        <v>1.988970424226407</v>
       </c>
       <c r="D33">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E33">
-        <v>-1.058415821499846</v>
+        <v>-1.054710862586227</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>8.2774e-01</t>
+          <t>8.2957e-01</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1494,20 +1494,20 @@
         </is>
       </c>
       <c r="B34">
-        <v>2.02123749244806</v>
+        <v>1.137483539450685</v>
       </c>
       <c r="C34">
-        <v>2.902486744087023</v>
+        <v>2.886048549284401</v>
       </c>
       <c r="D34">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E34">
-        <v>0.6963813001267779</v>
+        <v>0.3941318103372604</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>9.5731e-01</t>
+          <t>9.9491e-01</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1528,20 +1528,20 @@
         </is>
       </c>
       <c r="B35">
-        <v>-2.26141766453703</v>
+        <v>-2.249185974820466</v>
       </c>
       <c r="C35">
-        <v>1.475456241938483</v>
+        <v>1.477833631641479</v>
       </c>
       <c r="D35">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E35">
-        <v>-1.532690431785314</v>
+        <v>-1.521948023555412</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>5.4124e-01</t>
+          <t>5.4826e-01</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1562,20 +1562,20 @@
         </is>
       </c>
       <c r="B36">
-        <v>4.504709906118167</v>
+        <v>4.54614286640501</v>
       </c>
       <c r="C36">
-        <v>1.519459566907444</v>
+        <v>1.52182762920031</v>
       </c>
       <c r="D36">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E36">
-        <v>2.964679024191872</v>
+        <v>2.987291582289065</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2.5533e-02</t>
+          <t>2.3847e-02</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1596,20 +1596,20 @@
         </is>
       </c>
       <c r="B37">
-        <v>8.627707971925876</v>
+        <v>7.781415117650022</v>
       </c>
       <c r="C37">
-        <v>2.598058290952733</v>
+        <v>2.580599371205175</v>
       </c>
       <c r="D37">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E37">
-        <v>3.320829252357541</v>
+        <v>3.015351861461546</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>8.1450e-03</t>
+          <t>2.1891e-02</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1630,20 +1630,20 @@
         </is>
       </c>
       <c r="B38">
-        <v>4.345052814940787</v>
+        <v>4.394745603378871</v>
       </c>
       <c r="C38">
-        <v>0.723639897982629</v>
+        <v>0.7245427406369774</v>
       </c>
       <c r="D38">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E38">
-        <v>6.004440643825709</v>
+        <v>6.065543627578487</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2.3481e-08</t>
+          <t>1.6216e-08</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1664,20 +1664,20 @@
         </is>
       </c>
       <c r="B39">
-        <v>4.122998065807709</v>
+        <v>3.235272251245012</v>
       </c>
       <c r="C39">
-        <v>2.886993586101101</v>
+        <v>2.870224004064415</v>
       </c>
       <c r="D39">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E39">
-        <v>1.428128585271932</v>
+        <v>1.127184584430925</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>6.0951e-01</t>
+          <t>7.9217e-01</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1698,16 +1698,16 @@
         </is>
       </c>
       <c r="B40">
-        <v>-0.1596570911773809</v>
+        <v>-0.1513972630261384</v>
       </c>
       <c r="C40">
-        <v>1.447357032503592</v>
+        <v>1.449693240856365</v>
       </c>
       <c r="D40">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E40">
-        <v>-0.1103094036868092</v>
+        <v>-0.1044339993864528</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1732,20 +1732,20 @@
         </is>
       </c>
       <c r="B41">
-        <v>-4.28265515698509</v>
+        <v>-3.386669514271151</v>
       </c>
       <c r="C41">
-        <v>2.561317925351565</v>
+        <v>2.540817260909096</v>
       </c>
       <c r="D41">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E41">
-        <v>-1.672051374253845</v>
+        <v>-1.332905583717348</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4.5163e-01</t>
+          <t>6.7065e-01</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1766,20 +1766,20 @@
         </is>
       </c>
       <c r="B42">
-        <v>-2.677173377417973</v>
+        <v>-2.676452377519153</v>
       </c>
       <c r="C42">
-        <v>0.552703476681103</v>
+        <v>0.5525156215387411</v>
       </c>
       <c r="D42">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E42">
-        <v>-4.843778789838587</v>
+        <v>-4.844120732849698</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1.3753e-05</t>
+          <t>1.3729e-05</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1800,20 +1800,20 @@
         </is>
       </c>
       <c r="B43">
-        <v>-0.7001224786110349</v>
+        <v>-0.7001989235601537</v>
       </c>
       <c r="C43">
-        <v>0.7096841782971419</v>
+        <v>0.7094752650978936</v>
       </c>
       <c r="D43">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E43">
-        <v>-0.9865268242148925</v>
+        <v>-0.9869250670261774</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>8.6147e-01</t>
+          <t>8.6129e-01</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1834,20 +1834,20 @@
         </is>
       </c>
       <c r="B44">
-        <v>-2.158277802211383</v>
+        <v>-2.141268517049556</v>
       </c>
       <c r="C44">
-        <v>1.037309727119808</v>
+        <v>1.029467323721182</v>
       </c>
       <c r="D44">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E44">
-        <v>-2.080649342992332</v>
+        <v>-2.079977156836395</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2.2891e-01</t>
+          <t>2.2920e-01</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1868,20 +1868,20 @@
         </is>
       </c>
       <c r="B45">
-        <v>-0.246103702674853</v>
+        <v>-0.2463391214785702</v>
       </c>
       <c r="C45">
-        <v>0.5273082176242099</v>
+        <v>0.5271503260221786</v>
       </c>
       <c r="D45">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E45">
-        <v>-0.466716987236942</v>
+        <v>-0.4673033655075574</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>9.9027e-01</t>
+          <t>9.9023e-01</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -1902,20 +1902,20 @@
         </is>
       </c>
       <c r="B46">
-        <v>1.977050898806938</v>
+        <v>1.976253453959</v>
       </c>
       <c r="C46">
-        <v>0.5430344141723618</v>
+        <v>0.5428431954085636</v>
       </c>
       <c r="D46">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E46">
-        <v>3.640746971479071</v>
+        <v>3.640560424583749</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2.5935e-03</t>
+          <t>2.5953e-03</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -1936,20 +1936,20 @@
         </is>
       </c>
       <c r="B47">
-        <v>0.51889557520659</v>
+        <v>0.5351838604695969</v>
       </c>
       <c r="C47">
-        <v>0.9285110921935468</v>
+        <v>0.9205121407018164</v>
       </c>
       <c r="D47">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E47">
-        <v>0.5588469320067391</v>
+        <v>0.5813979379582785</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>9.8085e-01</t>
+          <t>9.7783e-01</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -1970,20 +1970,20 @@
         </is>
       </c>
       <c r="B48">
-        <v>2.43106967474312</v>
+        <v>2.430113256040583</v>
       </c>
       <c r="C48">
-        <v>0.258619167387612</v>
+        <v>0.2584478616307767</v>
       </c>
       <c r="D48">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E48">
-        <v>9.400191406151627</v>
+        <v>9.40272146461899</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1.6682e-12</t>
+          <t>1.6522e-12</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2004,20 +2004,20 @@
         </is>
       </c>
       <c r="B49">
-        <v>-1.458155323600348</v>
+        <v>-1.441069593489403</v>
       </c>
       <c r="C49">
-        <v>1.031772680821374</v>
+        <v>1.023822632740234</v>
       </c>
       <c r="D49">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E49">
-        <v>-1.413252502905523</v>
+        <v>-1.407538324907332</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>6.1917e-01</t>
+          <t>6.2287e-01</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2038,20 +2038,20 @@
         </is>
       </c>
       <c r="B50">
-        <v>0.4540187759361819</v>
+        <v>0.4538598020815835</v>
       </c>
       <c r="C50">
-        <v>0.5172659380752789</v>
+        <v>0.5171125140119812</v>
       </c>
       <c r="D50">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E50">
-        <v>0.8777279587083647</v>
+        <v>0.877680949084647</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>9.0514e-01</t>
+          <t>9.0515e-01</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2072,20 +2072,20 @@
         </is>
       </c>
       <c r="B51">
-        <v>1.91217409953653</v>
+        <v>1.894929395570986</v>
       </c>
       <c r="C51">
-        <v>0.9153805796447226</v>
+        <v>0.9063216716507533</v>
       </c>
       <c r="D51">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E51">
-        <v>2.088938898265334</v>
+        <v>2.090791222193336</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2.2526e-01</t>
+          <t>2.2445e-01</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2106,16 +2106,16 @@
         </is>
       </c>
       <c r="B52">
-        <v>0.0225803725036312</v>
+        <v>0.02308365508663248</v>
       </c>
       <c r="C52">
-        <v>0.2857662213671877</v>
+        <v>0.2856704017646355</v>
       </c>
       <c r="D52">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E52">
-        <v>0.07901694047533053</v>
+        <v>0.0808052039834745</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2140,20 +2140,20 @@
         </is>
       </c>
       <c r="B53">
-        <v>-0.5555415628570289</v>
+        <v>-0.5555949240454986</v>
       </c>
       <c r="C53">
-        <v>0.3669305053296504</v>
+        <v>0.3668241695287078</v>
       </c>
       <c r="D53">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E53">
-        <v>-1.514023922208186</v>
+        <v>-1.514608278836484</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>5.5343e-01</t>
+          <t>5.5305e-01</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2174,20 +2174,20 @@
         </is>
       </c>
       <c r="B54">
-        <v>0.4521537062308349</v>
+        <v>0.4640267688862487</v>
       </c>
       <c r="C54">
-        <v>0.5363238944803819</v>
+        <v>0.5322715458288145</v>
       </c>
       <c r="D54">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E54">
-        <v>0.8430609019739921</v>
+        <v>0.8717857877668436</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>9.1710e-01</t>
+          <t>9.0725e-01</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2208,20 +2208,20 @@
         </is>
       </c>
       <c r="B55">
-        <v>-1.648427516509565</v>
+        <v>-1.648591846884488</v>
       </c>
       <c r="C55">
-        <v>0.2726360213096325</v>
+        <v>0.2725556338221203</v>
       </c>
       <c r="D55">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E55">
-        <v>-6.046257235530325</v>
+        <v>-6.048643441215449</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1.8234e-08</t>
+          <t>1.7970e-08</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2242,20 +2242,20 @@
         </is>
       </c>
       <c r="B56">
-        <v>-0.5781219353606601</v>
+        <v>-0.5786785791321311</v>
       </c>
       <c r="C56">
-        <v>0.2807669919903833</v>
+        <v>0.2806694103882263</v>
       </c>
       <c r="D56">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E56">
-        <v>-2.059080845872586</v>
+        <v>-2.061780007773892</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2.3857e-01</t>
+          <t>2.3735e-01</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2276,20 +2276,20 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.4295733337272037</v>
+        <v>0.4409431137996162</v>
       </c>
       <c r="C57">
-        <v>0.4800713538242562</v>
+        <v>0.4759378066653889</v>
       </c>
       <c r="D57">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E57">
-        <v>0.8948114281454528</v>
+        <v>0.9264721306530372</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>8.9889e-01</t>
+          <t>8.8671e-01</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2310,20 +2310,20 @@
         </is>
       </c>
       <c r="B58">
-        <v>-1.671007889013196</v>
+        <v>-1.67167550197112</v>
       </c>
       <c r="C58">
-        <v>0.1337147771916899</v>
+        <v>0.1336268181190205</v>
       </c>
       <c r="D58">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E58">
-        <v>-12.49680793782189</v>
+        <v>-12.51002998875697</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1.6200e-12</t>
+          <t>1.6044e-12</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2344,20 +2344,20 @@
         </is>
       </c>
       <c r="B59">
-        <v>1.007695269087864</v>
+        <v>1.019621692931747</v>
       </c>
       <c r="C59">
-        <v>0.5334610559693231</v>
+        <v>0.5293530380482131</v>
       </c>
       <c r="D59">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E59">
-        <v>1.888976257614223</v>
+        <v>1.926165752616084</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>3.2361e-01</t>
+          <t>3.0373e-01</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2378,20 +2378,20 @@
         </is>
       </c>
       <c r="B60">
-        <v>-1.092885953652536</v>
+        <v>-1.092996922838989</v>
       </c>
       <c r="C60">
-        <v>0.2674438262146362</v>
+        <v>0.2673657248349227</v>
       </c>
       <c r="D60">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E60">
-        <v>-4.086413095120184</v>
+        <v>-4.088021841669603</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>4.4064e-04</t>
+          <t>4.3766e-04</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2412,20 +2412,20 @@
         </is>
       </c>
       <c r="B61">
-        <v>-2.1005812227404</v>
+        <v>-2.112618615770737</v>
       </c>
       <c r="C61">
-        <v>0.4732824387658173</v>
+        <v>0.4686008249819461</v>
       </c>
       <c r="D61">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E61">
-        <v>-4.438324878941429</v>
+        <v>-4.508354452538853</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>9.4355e-05</t>
+          <t>6.8428e-05</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2446,20 +2446,20 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.1678880573948437</v>
+        <v>0.175754255585908</v>
       </c>
       <c r="C62">
-        <v>0.4615147956090113</v>
+        <v>0.461793436466822</v>
       </c>
       <c r="D62">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E62">
-        <v>0.3637761107383348</v>
+        <v>0.3805906314533233</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>9.9627e-01</t>
+          <t>9.9555e-01</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2480,20 +2480,20 @@
         </is>
       </c>
       <c r="B63">
-        <v>-1.583476533447142</v>
+        <v>-1.584310557309895</v>
       </c>
       <c r="C63">
-        <v>0.5925957811239382</v>
+        <v>0.5929805565412292</v>
       </c>
       <c r="D63">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E63">
-        <v>-2.672102272553923</v>
+        <v>-2.671774883397446</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>5.8586e-02</t>
+          <t>5.8637e-02</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2514,20 +2514,20 @@
         </is>
       </c>
       <c r="B64">
-        <v>-1.908345048825128</v>
+        <v>-1.722771641112525</v>
       </c>
       <c r="C64">
-        <v>0.866167496484115</v>
+        <v>0.8604304287859357</v>
       </c>
       <c r="D64">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E64">
-        <v>-2.203205565403164</v>
+        <v>-2.002220729854185</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1.7892e-01</t>
+          <t>2.6528e-01</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2548,20 +2548,20 @@
         </is>
       </c>
       <c r="B65">
-        <v>-1.765409152282628</v>
+        <v>-1.767977600587828</v>
       </c>
       <c r="C65">
-        <v>0.4403094146270454</v>
+        <v>0.4405930820750891</v>
       </c>
       <c r="D65">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E65">
-        <v>-4.009474005405903</v>
+        <v>-4.012722106895261</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>6.0712e-04</t>
+          <t>5.9902e-04</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2582,20 +2582,20 @@
         </is>
       </c>
       <c r="B66">
-        <v>-1.751364590841986</v>
+        <v>-1.760064812895803</v>
       </c>
       <c r="C66">
-        <v>0.4534409990875048</v>
+        <v>0.4537092073020672</v>
       </c>
       <c r="D66">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E66">
-        <v>-3.86238693538166</v>
+        <v>-3.879279469248241</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1.1018e-03</t>
+          <t>1.0301e-03</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2616,20 +2616,20 @@
         </is>
       </c>
       <c r="B67">
-        <v>-2.076233106219971</v>
+        <v>-1.898525896698433</v>
       </c>
       <c r="C67">
-        <v>0.7753191811052268</v>
+        <v>0.7693655132867887</v>
       </c>
       <c r="D67">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E67">
-        <v>-2.677907572543576</v>
+        <v>-2.4676514139395</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>5.7685e-02</t>
+          <t>9.8552e-02</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2650,20 +2650,20 @@
         </is>
       </c>
       <c r="B68">
-        <v>-1.933297209677472</v>
+        <v>-1.943731856173736</v>
       </c>
       <c r="C68">
-        <v>0.2159504638801691</v>
+        <v>0.2160111343776905</v>
       </c>
       <c r="D68">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E68">
-        <v>-8.952503157160423</v>
+        <v>-8.998294748895518</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1.6620e-12</t>
+          <t>1.6489e-12</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2684,20 +2684,20 @@
         </is>
       </c>
       <c r="B69">
-        <v>-0.3248685153779856</v>
+        <v>-0.1384610838026297</v>
       </c>
       <c r="C69">
-        <v>0.8615439887652123</v>
+        <v>0.8557125870738305</v>
       </c>
       <c r="D69">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E69">
-        <v>-0.3770771076281267</v>
+        <v>-0.161807931651569</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>9.9571e-01</t>
+          <t>9.9985e-01</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2718,20 +2718,20 @@
         </is>
       </c>
       <c r="B70">
-        <v>-0.1819326188354862</v>
+        <v>-0.183667043277933</v>
       </c>
       <c r="C70">
-        <v>0.4319239768850868</v>
+        <v>0.4322034628098682</v>
       </c>
       <c r="D70">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E70">
-        <v>-0.42121444645776</v>
+        <v>-0.4249550479856533</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>9.9342e-01</t>
+          <t>9.9320e-01</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2752,20 +2752,20 @@
         </is>
       </c>
       <c r="B71">
-        <v>0.1429358965424994</v>
+        <v>-0.04520595947530337</v>
       </c>
       <c r="C71">
-        <v>0.7643550275022841</v>
+        <v>0.757505096652927</v>
       </c>
       <c r="D71">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E71">
-        <v>0.1870019708113613</v>
+        <v>-0.0596774327658627</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>9.9973e-01</t>
+          <t>1.0000e+00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2786,20 +2786,20 @@
         </is>
       </c>
       <c r="B72">
-        <v>-7.432573357234177</v>
+        <v>-7.441920398606352</v>
       </c>
       <c r="C72">
-        <v>1.005776605205652</v>
+        <v>1.005713079354758</v>
       </c>
       <c r="D72">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E72">
-        <v>-7.389884909596232</v>
+        <v>-7.399645635891416</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>3.9657e-12</t>
+          <t>3.7907e-12</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -2820,20 +2820,20 @@
         </is>
       </c>
       <c r="B73">
-        <v>-3.705750279397956</v>
+        <v>-3.70475924721669</v>
       </c>
       <c r="C73">
-        <v>1.291440661640163</v>
+        <v>1.291417881725186</v>
       </c>
       <c r="D73">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E73">
-        <v>-2.869470034102501</v>
+        <v>-2.868753251478566</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>3.3824e-02</t>
+          <t>3.3894e-02</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -2854,20 +2854,20 @@
         </is>
       </c>
       <c r="B74">
-        <v>-3.936552596660483</v>
+        <v>-4.157060938473222</v>
       </c>
       <c r="C74">
-        <v>1.887633966325352</v>
+        <v>1.873881410540597</v>
       </c>
       <c r="D74">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E74">
-        <v>-2.085442764268409</v>
+        <v>-2.218422636080236</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2.2679e-01</t>
+          <t>1.7330e-01</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -2888,20 +2888,20 @@
         </is>
       </c>
       <c r="B75">
-        <v>-4.767242785173042</v>
+        <v>-4.764190816231011</v>
       </c>
       <c r="C75">
-        <v>0.9595638373831386</v>
+        <v>0.9595420599876308</v>
       </c>
       <c r="D75">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E75">
-        <v>-4.968135104146862</v>
+        <v>-4.965067207468138</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>7.3814e-06</t>
+          <t>7.4964e-06</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -2922,20 +2922,20 @@
         </is>
       </c>
       <c r="B76">
-        <v>3.726823077836221</v>
+        <v>3.737161151389662</v>
       </c>
       <c r="C76">
-        <v>0.9881814257362568</v>
+        <v>0.9881069066258839</v>
       </c>
       <c r="D76">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E76">
-        <v>3.771395596774656</v>
+        <v>3.782142525600848</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1.5755e-03</t>
+          <t>1.5110e-03</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -2956,20 +2956,20 @@
         </is>
       </c>
       <c r="B77">
-        <v>3.496020760573694</v>
+        <v>3.28485946013313</v>
       </c>
       <c r="C77">
-        <v>1.689648742233337</v>
+        <v>1.675556425048067</v>
       </c>
       <c r="D77">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E77">
-        <v>2.069081385491246</v>
+        <v>1.960458872663089</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2.3406e-01</t>
+          <t>2.8601e-01</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -2990,20 +2990,20 @@
         </is>
       </c>
       <c r="B78">
-        <v>2.665330572061135</v>
+        <v>2.677729582375341</v>
       </c>
       <c r="C78">
-        <v>0.4706196345609453</v>
+        <v>0.4704380919573975</v>
       </c>
       <c r="D78">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E78">
-        <v>5.66344958078024</v>
+        <v>5.691991418538944</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1.7392e-07</t>
+          <t>1.4767e-07</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3024,20 +3024,20 @@
         </is>
       </c>
       <c r="B79">
-        <v>-0.2308023172625271</v>
+        <v>-0.4523016912565319</v>
       </c>
       <c r="C79">
-        <v>1.877557981889092</v>
+        <v>1.863606697343086</v>
       </c>
       <c r="D79">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E79">
-        <v>-0.1229268653691893</v>
+        <v>-0.2427023319359021</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>9.9995e-01</t>
+          <t>9.9923e-01</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3058,20 +3058,20 @@
         </is>
       </c>
       <c r="B80">
-        <v>-1.061492505775086</v>
+        <v>-1.059431569014321</v>
       </c>
       <c r="C80">
-        <v>0.9412894999501616</v>
+        <v>0.9412707959125175</v>
       </c>
       <c r="D80">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E80">
-        <v>-1.127700357680914</v>
+        <v>-1.125533240396832</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>7.9189e-01</t>
+          <t>7.9306e-01</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3092,20 +3092,20 @@
         </is>
       </c>
       <c r="B81">
-        <v>-0.8306901885125586</v>
+        <v>-0.6071298777577887</v>
       </c>
       <c r="C81">
-        <v>1.665754623789811</v>
+        <v>1.649726313155326</v>
       </c>
       <c r="D81">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E81">
-        <v>-0.4986870074672997</v>
+        <v>-0.3680185452073987</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>9.8750e-01</t>
+          <t>9.9609e-01</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3126,20 +3126,20 @@
         </is>
       </c>
       <c r="B82">
-        <v>-10.01752928007715</v>
+        <v>-10.03445877333128</v>
       </c>
       <c r="C82">
-        <v>1.147041053553895</v>
+        <v>1.147461318160987</v>
       </c>
       <c r="D82">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E82">
-        <v>-8.733365949753658</v>
+        <v>-8.744921170339147</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1.6607e-12</t>
+          <t>1.6447e-12</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3160,20 +3160,20 @@
         </is>
       </c>
       <c r="B83">
-        <v>-2.041241489861521</v>
+        <v>-2.039446518387828</v>
       </c>
       <c r="C83">
-        <v>1.47282751404541</v>
+        <v>1.473434218248184</v>
       </c>
       <c r="D83">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E83">
-        <v>-1.385933838413197</v>
+        <v>-1.384144940527169</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>6.3682e-01</t>
+          <t>6.3797e-01</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3194,20 +3194,20 @@
         </is>
       </c>
       <c r="B84">
-        <v>-2.462173625238552</v>
+        <v>-2.861561446106827</v>
       </c>
       <c r="C84">
-        <v>2.152758020271539</v>
+        <v>2.137991915940683</v>
       </c>
       <c r="D84">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E84">
-        <v>-1.143729858188142</v>
+        <v>-1.338434174971043</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>7.8317e-01</t>
+          <t>6.6716e-01</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3228,20 +3228,20 @@
         </is>
       </c>
       <c r="B85">
-        <v>-1.993634983427828</v>
+        <v>-1.988107214205549</v>
       </c>
       <c r="C85">
-        <v>1.094337558944434</v>
+        <v>1.094782815880962</v>
       </c>
       <c r="D85">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E85">
-        <v>-1.821773334135429</v>
+        <v>-1.815983211798713</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>3.6122e-01</t>
+          <t>3.6456e-01</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3262,20 +3262,20 @@
         </is>
       </c>
       <c r="B86">
-        <v>7.976287790215631</v>
+        <v>7.995012254943449</v>
       </c>
       <c r="C86">
-        <v>1.12697457647381</v>
+        <v>1.127373678274464</v>
       </c>
       <c r="D86">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E86">
-        <v>7.07761111627969</v>
+        <v>7.091714494505899</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2.3172e-11</t>
+          <t>2.1127e-11</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3296,20 +3296,20 @@
         </is>
       </c>
       <c r="B87">
-        <v>7.5553556548386</v>
+        <v>7.17289732722445</v>
       </c>
       <c r="C87">
-        <v>1.926965156473346</v>
+        <v>1.911714408022102</v>
       </c>
       <c r="D87">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E87">
-        <v>3.920857431935152</v>
+        <v>3.752075779271693</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>8.7169e-04</t>
+          <t>1.6979e-03</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3330,20 +3330,20 @@
         </is>
       </c>
       <c r="B88">
-        <v>8.023894296649324</v>
+        <v>8.046351559125728</v>
       </c>
       <c r="C88">
-        <v>0.5367196240755254</v>
+        <v>0.5367430574303597</v>
       </c>
       <c r="D88">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E88">
-        <v>14.94988060194391</v>
+        <v>14.99106778883621</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1.6200e-12</t>
+          <t>1.6044e-12</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3364,20 +3364,20 @@
         </is>
       </c>
       <c r="B89">
-        <v>-0.4209321353770306</v>
+        <v>-0.822114927718999</v>
       </c>
       <c r="C89">
-        <v>2.141266832523145</v>
+        <v>2.126269053633964</v>
       </c>
       <c r="D89">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E89">
-        <v>-0.1965808879975171</v>
+        <v>-0.3866467069696278</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>9.9967e-01</t>
+          <t>9.9527e-01</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3398,16 +3398,16 @@
         </is>
       </c>
       <c r="B90">
-        <v>0.04760650643369302</v>
+        <v>0.05133930418227917</v>
       </c>
       <c r="C90">
-        <v>1.07349653405518</v>
+        <v>1.073936344665188</v>
       </c>
       <c r="D90">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E90">
-        <v>0.04434714498225474</v>
+        <v>0.04780479256271451</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3432,20 +3432,20 @@
         </is>
       </c>
       <c r="B91">
-        <v>0.4685386418107236</v>
+        <v>0.8734542319012781</v>
       </c>
       <c r="C91">
-        <v>1.899715034874426</v>
+        <v>1.882243722148447</v>
       </c>
       <c r="D91">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E91">
-        <v>0.2466362760779512</v>
+        <v>0.4640494860592722</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>9.9918e-01</t>
+          <t>9.9048e-01</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3466,20 +3466,20 @@
         </is>
       </c>
       <c r="B92">
-        <v>-6.867143653941102</v>
+        <v>-6.890860022077968</v>
       </c>
       <c r="C92">
-        <v>1.337176287513118</v>
+        <v>1.338088689993875</v>
       </c>
       <c r="D92">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E92">
-        <v>-5.1355559607721</v>
+        <v>-5.149778242359638</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>3.1204e-06</t>
+          <t>2.8966e-06</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3500,20 +3500,20 @@
         </is>
       </c>
       <c r="B93">
-        <v>-1.679041330425981</v>
+        <v>-1.676526771742742</v>
       </c>
       <c r="C93">
-        <v>1.716965597069521</v>
+        <v>1.718215360887008</v>
       </c>
       <c r="D93">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E93">
-        <v>-0.9779120404577306</v>
+        <v>-0.9757372736309697</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>8.6526e-01</t>
+          <t>8.6621e-01</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3534,20 +3534,20 @@
         </is>
       </c>
       <c r="B94">
-        <v>0.6729880173275922</v>
+        <v>0.1134893692079749</v>
       </c>
       <c r="C94">
-        <v>2.509602397003945</v>
+        <v>2.493175810582919</v>
       </c>
       <c r="D94">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E94">
-        <v>0.2681651954632454</v>
+        <v>0.04552000253100499</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>9.9887e-01</t>
+          <t>1.0000e+00</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -3568,20 +3568,20 @@
         </is>
       </c>
       <c r="B95">
-        <v>-2.291970707542994</v>
+        <v>-2.284226907543624</v>
       </c>
       <c r="C95">
-        <v>1.275736583116753</v>
+        <v>1.276658725435516</v>
       </c>
       <c r="D95">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E95">
-        <v>-1.796586174509066</v>
+        <v>-1.789222806403794</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>3.7584e-01</t>
+          <t>3.8016e-01</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -3602,20 +3602,20 @@
         </is>
       </c>
       <c r="B96">
-        <v>5.188102323515121</v>
+        <v>5.214333250335226</v>
       </c>
       <c r="C96">
-        <v>1.313783561296144</v>
+        <v>1.314663897092007</v>
       </c>
       <c r="D96">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E96">
-        <v>3.948977956762282</v>
+        <v>3.966286183007807</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>7.7784e-04</t>
+          <t>7.2486e-04</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -3636,20 +3636,20 @@
         </is>
       </c>
       <c r="B97">
-        <v>7.540131671268694</v>
+        <v>7.004349391285943</v>
       </c>
       <c r="C97">
-        <v>2.246381771704472</v>
+        <v>2.229306894608382</v>
       </c>
       <c r="D97">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E97">
-        <v>3.356567332518693</v>
+        <v>3.141940397809778</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>7.2067e-03</t>
+          <t>1.4717e-02</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -3670,20 +3670,20 @@
         </is>
       </c>
       <c r="B98">
-        <v>4.575172946398108</v>
+        <v>4.606633114534344</v>
       </c>
       <c r="C98">
-        <v>0.6256870685954274</v>
+        <v>0.6259120052354862</v>
       </c>
       <c r="D98">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E98">
-        <v>7.312238299360536</v>
+        <v>7.359873394345897</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>5.7134e-12</t>
+          <t>4.5137e-12</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -3704,20 +3704,20 @@
         </is>
       </c>
       <c r="B99">
-        <v>2.352029347753573</v>
+        <v>1.790016140950717</v>
       </c>
       <c r="C99">
-        <v>2.496206412854202</v>
+        <v>2.479505433012269</v>
       </c>
       <c r="D99">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E99">
-        <v>0.9422415292428585</v>
+        <v>0.721924669782266</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>8.8035e-01</t>
+          <t>9.5149e-01</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -3738,20 +3738,20 @@
         </is>
       </c>
       <c r="B100">
-        <v>-0.612929377117013</v>
+        <v>-0.6077001358008816</v>
       </c>
       <c r="C100">
-        <v>1.2514409188918</v>
+        <v>1.252349036804951</v>
       </c>
       <c r="D100">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E100">
-        <v>-0.4897789163389241</v>
+        <v>-0.4852482159057457</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>9.8832e-01</t>
+          <t>9.8872e-01</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -3772,20 +3772,20 @@
         </is>
       </c>
       <c r="B101">
-        <v>-2.964958724870586</v>
+        <v>-2.397716276751598</v>
       </c>
       <c r="C101">
-        <v>2.21461462935065</v>
+        <v>2.194940253371969</v>
       </c>
       <c r="D101">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E101">
-        <v>-1.338814747078568</v>
+        <v>-1.092383390877321</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>6.6692e-01</t>
+          <t>8.1055e-01</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -3806,20 +3806,20 @@
         </is>
       </c>
       <c r="B102">
-        <v>-8.006355452783854</v>
+        <v>-8.021027336604552</v>
       </c>
       <c r="C102">
-        <v>1.419231597397472</v>
+        <v>1.419237061268358</v>
       </c>
       <c r="D102">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E102">
-        <v>-5.641331173478366</v>
+        <v>-5.651647322002878</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1.9731e-07</t>
+          <t>1.8603e-07</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -3840,20 +3840,20 @@
         </is>
       </c>
       <c r="B103">
-        <v>-0.428890079404992</v>
+        <v>-0.4273344738988226</v>
       </c>
       <c r="C103">
-        <v>1.822326532231132</v>
+        <v>1.822416509194612</v>
       </c>
       <c r="D103">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E103">
-        <v>-0.2353530346067498</v>
+        <v>-0.2344878197397785</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>9.9932e-01</t>
+          <t>9.9933e-01</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -3874,20 +3874,20 @@
         </is>
       </c>
       <c r="B104">
-        <v>1.056330868828621</v>
+        <v>0.7102028649233156</v>
       </c>
       <c r="C104">
-        <v>2.663603185303637</v>
+        <v>2.644374425325467</v>
       </c>
       <c r="D104">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E104">
-        <v>0.3965796687197629</v>
+        <v>0.2685712197643511</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>9.9478e-01</t>
+          <t>9.9886e-01</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -3908,20 +3908,20 @@
         </is>
       </c>
       <c r="B105">
-        <v>-0.8866257178346632</v>
+        <v>-0.8818350967216129</v>
       </c>
       <c r="C105">
-        <v>1.354021669111762</v>
+        <v>1.354081677304965</v>
       </c>
       <c r="D105">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E105">
-        <v>-0.6548091053936302</v>
+        <v>-0.6512421750486523</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>9.6577e-01</t>
+          <t>9.6644e-01</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -3942,20 +3942,20 @@
         </is>
       </c>
       <c r="B106">
-        <v>7.577465373378862</v>
+        <v>7.59369286270573</v>
       </c>
       <c r="C106">
-        <v>1.394403385510659</v>
+        <v>1.394391672104342</v>
       </c>
       <c r="D106">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E106">
-        <v>5.434198921285494</v>
+        <v>5.445882254335134</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>6.2915e-07</t>
+          <t>5.8989e-07</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -3976,20 +3976,20 @@
         </is>
       </c>
       <c r="B107">
-        <v>9.062686321612475</v>
+        <v>8.731230201527868</v>
       </c>
       <c r="C107">
-        <v>2.384230127315523</v>
+        <v>2.36450318235914</v>
       </c>
       <c r="D107">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E107">
-        <v>3.80109546380761</v>
+        <v>3.692627807257354</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>1.4032e-03</t>
+          <t>2.1323e-03</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4010,20 +4010,20 @@
         </is>
       </c>
       <c r="B108">
-        <v>7.119729734949191</v>
+        <v>7.13919223988294</v>
       </c>
       <c r="C108">
-        <v>0.6640821155190567</v>
+        <v>0.6638704306865212</v>
       </c>
       <c r="D108">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E108">
-        <v>10.72115867686679</v>
+        <v>10.75389399780943</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1.6644e-12</t>
+          <t>1.6478e-12</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4044,20 +4044,20 @@
         </is>
       </c>
       <c r="B109">
-        <v>1.485220948233613</v>
+        <v>1.137537338822138</v>
       </c>
       <c r="C109">
-        <v>2.649385161725826</v>
+        <v>2.629875007884096</v>
       </c>
       <c r="D109">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E109">
-        <v>0.560590800344836</v>
+        <v>0.4325442598647913</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>9.8063e-01</t>
+          <t>9.9272e-01</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4078,20 +4078,20 @@
         </is>
       </c>
       <c r="B110">
-        <v>-0.4577356384296711</v>
+        <v>-0.4545006228227902</v>
       </c>
       <c r="C110">
-        <v>1.328235110772516</v>
+        <v>1.328297727922246</v>
       </c>
       <c r="D110">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E110">
-        <v>-0.3446194387704802</v>
+        <v>-0.3421677333843902</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>9.9697e-01</t>
+          <t>9.9706e-01</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4112,20 +4112,20 @@
         </is>
       </c>
       <c r="B111">
-        <v>-1.942956586663285</v>
+        <v>-1.592037961644929</v>
       </c>
       <c r="C111">
-        <v>2.350513606458414</v>
+        <v>2.328052376610043</v>
       </c>
       <c r="D111">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E111">
-        <v>-0.8266093764889083</v>
+        <v>-0.6838497181765083</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>9.2245e-01</t>
+          <t>9.5999e-01</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -4146,20 +4146,20 @@
         </is>
       </c>
       <c r="B112">
-        <v>-1.505915373891786</v>
+        <v>-1.512678563007439</v>
       </c>
       <c r="C112">
-        <v>0.7031813112213346</v>
+        <v>0.7031510053150671</v>
       </c>
       <c r="D112">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E112">
-        <v>-2.141574797083566</v>
+        <v>-2.15128550136914</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2.0301e-01</t>
+          <t>1.9907e-01</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4180,20 +4180,20 @@
         </is>
       </c>
       <c r="B113">
-        <v>0.5632208835284488</v>
+        <v>0.5639379594238199</v>
       </c>
       <c r="C113">
-        <v>0.9029012338490359</v>
+        <v>0.9029034229121397</v>
       </c>
       <c r="D113">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E113">
-        <v>0.6237901360788468</v>
+        <v>0.6245828126389725</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>9.7130e-01</t>
+          <t>9.7116e-01</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -4214,20 +4214,20 @@
         </is>
       </c>
       <c r="B114">
-        <v>0.7543623224620196</v>
+        <v>0.5948102719385771</v>
       </c>
       <c r="C114">
-        <v>1.319725394960032</v>
+        <v>1.31013668282826</v>
       </c>
       <c r="D114">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E114">
-        <v>0.5716055213780786</v>
+        <v>0.4540062725780103</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>9.7918e-01</t>
+          <t>9.9124e-01</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4248,20 +4248,20 @@
         </is>
       </c>
       <c r="B115">
-        <v>1.143516071134674</v>
+        <v>1.145724368103582</v>
       </c>
       <c r="C115">
-        <v>0.6708719947146558</v>
+        <v>0.6708702292658525</v>
       </c>
       <c r="D115">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E115">
-        <v>1.704521995468077</v>
+        <v>1.707818171268939</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>4.3137e-01</t>
+          <t>4.2933e-01</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4282,20 +4282,20 @@
         </is>
       </c>
       <c r="B116">
-        <v>2.069136257420234</v>
+        <v>2.076616522431259</v>
       </c>
       <c r="C116">
-        <v>0.6908797709921956</v>
+        <v>0.6908415322574023</v>
       </c>
       <c r="D116">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E116">
-        <v>2.994929572838236</v>
+        <v>3.005923103154613</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2.3300e-02</t>
+          <t>2.2532e-02</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4316,20 +4316,20 @@
         </is>
       </c>
       <c r="B117">
-        <v>2.260277696353805</v>
+        <v>2.107488834946016</v>
       </c>
       <c r="C117">
-        <v>1.18130548266648</v>
+        <v>1.171476446831689</v>
       </c>
       <c r="D117">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E117">
-        <v>1.913372730017164</v>
+        <v>1.799002310841003</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>3.1049e-01</t>
+          <t>3.7442e-01</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4350,20 +4350,20 @@
         </is>
       </c>
       <c r="B118">
-        <v>2.64943144502646</v>
+        <v>2.658402931111021</v>
       </c>
       <c r="C118">
-        <v>0.329030253839922</v>
+        <v>0.3289099287746885</v>
       </c>
       <c r="D118">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E118">
-        <v>8.052242655824125</v>
+        <v>8.082464828637304</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>1.6978e-12</t>
+          <t>1.6780e-12</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4384,20 +4384,20 @@
         </is>
       </c>
       <c r="B119">
-        <v>0.1911414389335708</v>
+        <v>0.03087231251475719</v>
       </c>
       <c r="C119">
-        <v>1.312680844598586</v>
+        <v>1.302953048586584</v>
       </c>
       <c r="D119">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E119">
-        <v>0.145611509240863</v>
+        <v>0.02369410973653029</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>9.9990e-01</t>
+          <t>1.0000e+00</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4418,20 +4418,20 @@
         </is>
       </c>
       <c r="B120">
-        <v>0.5802951876062251</v>
+        <v>0.5817864086797622</v>
       </c>
       <c r="C120">
-        <v>0.6580956261937412</v>
+        <v>0.6580957531587748</v>
       </c>
       <c r="D120">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E120">
-        <v>0.8817794322118593</v>
+        <v>0.8840452257703569</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>9.0368e-01</t>
+          <t>9.0285e-01</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -4452,20 +4452,20 @@
         </is>
       </c>
       <c r="B121">
-        <v>0.3891537486726543</v>
+        <v>0.550914096165005</v>
       </c>
       <c r="C121">
-        <v>1.164600085612468</v>
+        <v>1.153417151872103</v>
       </c>
       <c r="D121">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="E121">
-        <v>0.3341522583419669</v>
+        <v>0.4776364693994887</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>9.9732e-01</t>
+          <t>9.8938e-01</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">

--- a/race_est_data.xlsx
+++ b/race_est_data.xlsx
@@ -402,24 +402,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Asian - Black</t>
+          <t>White - Asian</t>
         </is>
       </c>
       <c r="B2">
-        <v>-3.150247039542005</v>
+        <v>2.53</v>
       </c>
       <c r="C2">
-        <v>0.6333883680124404</v>
+        <v>0.604</v>
       </c>
       <c r="D2">
         <v>1669</v>
       </c>
       <c r="E2">
-        <v>-4.973642079072931</v>
+        <v>4.187</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.1779e-06</t>
+          <t>2.8701e-04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -436,29 +436,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Asian - LatinX</t>
+          <t>White - Black</t>
         </is>
       </c>
       <c r="B3">
-        <v>-2.434371708935029</v>
+        <v>-0.62</v>
       </c>
       <c r="C3">
-        <v>0.8133224886095629</v>
+        <v>0.296</v>
       </c>
       <c r="D3">
         <v>1669</v>
       </c>
       <c r="E3">
-        <v>-2.99311987929508</v>
+        <v>-2.092</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.3429e-02</t>
+          <t>2.2380e-01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -470,24 +470,24 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Asian - Other</t>
+          <t>White - LatinX</t>
         </is>
       </c>
       <c r="B4">
-        <v>-2.395781728860122</v>
+        <v>0.096</v>
       </c>
       <c r="C4">
-        <v>1.180152384249236</v>
+        <v>0.593</v>
       </c>
       <c r="D4">
         <v>1669</v>
       </c>
       <c r="E4">
-        <v>-2.030061338548427</v>
+        <v>0.162</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.5198e-01</t>
+          <t>9.9985e-01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -504,29 +504,29 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Asian - white</t>
+          <t>White - Other</t>
         </is>
       </c>
       <c r="B5">
-        <v>-2.530347892888183</v>
+        <v>0.135</v>
       </c>
       <c r="C5">
-        <v>0.6043103066779116</v>
+        <v>1.039</v>
       </c>
       <c r="D5">
         <v>1669</v>
       </c>
       <c r="E5">
-        <v>-4.187166535017945</v>
+        <v>0.13</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.8701e-04</t>
+          <t>9.9994e-01</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -538,29 +538,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Black - LatinX</t>
+          <t>Asian - Black</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.7158753306069756</v>
+        <v>-3.15</v>
       </c>
       <c r="C6">
-        <v>0.6223001707516062</v>
+        <v>0.633</v>
       </c>
       <c r="D6">
         <v>1669</v>
       </c>
       <c r="E6">
-        <v>1.150369812276205</v>
+        <v>-4.974</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.7952e-01</t>
+          <t>7.1779e-06</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -572,29 +572,29 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Black - Other</t>
+          <t>Asian - LatinX</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.7544653106818831</v>
+        <v>-2.434</v>
       </c>
       <c r="C7">
-        <v>1.05524922700105</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="D7">
         <v>1669</v>
       </c>
       <c r="E7">
-        <v>0.7149640969896984</v>
+        <v>-2.993</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.5312e-01</t>
+          <t>2.3429e-02</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -606,24 +606,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Black - white</t>
+          <t>Asian - Other</t>
         </is>
       </c>
       <c r="B8">
-        <v>0.6198991466538222</v>
+        <v>-2.396</v>
       </c>
       <c r="C8">
-        <v>0.2962773592513613</v>
+        <v>1.18</v>
       </c>
       <c r="D8">
         <v>1669</v>
       </c>
       <c r="E8">
-        <v>2.092293343710751</v>
+        <v>-2.03</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.2380e-01</t>
+          <t>2.5198e-01</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -640,24 +640,24 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LatinX - Other</t>
+          <t>Black - LatinX</t>
         </is>
       </c>
       <c r="B9">
-        <v>0.03858998007490744</v>
+        <v>0.716</v>
       </c>
       <c r="C9">
-        <v>1.173681469276008</v>
+        <v>0.622</v>
       </c>
       <c r="D9">
         <v>1669</v>
       </c>
       <c r="E9">
-        <v>0.0328794320137915</v>
+        <v>1.15</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.0000e+00</t>
+          <t>7.7952e-01</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -674,24 +674,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LatinX - white</t>
+          <t>Black - Other</t>
         </is>
       </c>
       <c r="B10">
-        <v>-0.09597618395315344</v>
+        <v>0.754</v>
       </c>
       <c r="C10">
-        <v>0.5928032413213736</v>
+        <v>1.055</v>
       </c>
       <c r="D10">
         <v>1669</v>
       </c>
       <c r="E10">
-        <v>-0.1619022590686584</v>
+        <v>0.715</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9.9985e-01</t>
+          <t>9.5312e-01</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -708,24 +708,24 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Other - white</t>
+          <t>LatinX - Other</t>
         </is>
       </c>
       <c r="B11">
-        <v>-0.1345661640280609</v>
+        <v>0.039</v>
       </c>
       <c r="C11">
-        <v>1.038981672413992</v>
+        <v>1.174</v>
       </c>
       <c r="D11">
         <v>1669</v>
       </c>
       <c r="E11">
-        <v>-0.1295173607012788</v>
+        <v>0.033</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9.9994e-01</t>
+          <t>1.0000e+00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -742,29 +742,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Asian - Black</t>
+          <t>White - Asian</t>
         </is>
       </c>
       <c r="B12">
-        <v>-4.059004038704365</v>
+        <v>-0.723</v>
       </c>
       <c r="C12">
-        <v>1.116167836829816</v>
+        <v>1.065</v>
       </c>
       <c r="D12">
         <v>1669</v>
       </c>
       <c r="E12">
-        <v>-3.6365534866449</v>
+        <v>-0.679</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.6345e-03</t>
+          <t>9.6108e-01</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -776,29 +776,29 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Asian - LatinX</t>
+          <t>White - Black</t>
         </is>
       </c>
       <c r="B13">
-        <v>-0.84730541416657</v>
+        <v>-4.782</v>
       </c>
       <c r="C13">
-        <v>1.433250827774199</v>
+        <v>0.522</v>
       </c>
       <c r="D13">
         <v>1669</v>
       </c>
       <c r="E13">
-        <v>-0.5911773415700121</v>
+        <v>-9.157999999999999</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9.7642e-01</t>
+          <t>1.6549e-12</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -810,24 +810,24 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Asian - Other</t>
+          <t>White - LatinX</t>
         </is>
       </c>
       <c r="B14">
-        <v>-0.1554285906335949</v>
+        <v>-1.57</v>
       </c>
       <c r="C14">
-        <v>2.079684756432325</v>
+        <v>1.045</v>
       </c>
       <c r="D14">
         <v>1669</v>
       </c>
       <c r="E14">
-        <v>-0.07473661099494275</v>
+        <v>-1.503</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9.9999e-01</t>
+          <t>5.6073e-01</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -844,24 +844,24 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Asian - white</t>
+          <t>White - Other</t>
         </is>
       </c>
       <c r="B15">
-        <v>0.7226521957769414</v>
+        <v>-0.878</v>
       </c>
       <c r="C15">
-        <v>1.06492597881968</v>
+        <v>1.831</v>
       </c>
       <c r="D15">
         <v>1669</v>
       </c>
       <c r="E15">
-        <v>0.6785938273173686</v>
+        <v>-0.48</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9.6108e-01</t>
+          <t>9.8921e-01</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -878,24 +878,24 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Black - LatinX</t>
+          <t>Asian - Black</t>
         </is>
       </c>
       <c r="B16">
-        <v>3.211698624537795</v>
+        <v>-4.059</v>
       </c>
       <c r="C16">
-        <v>1.096628025592354</v>
+        <v>1.116</v>
       </c>
       <c r="D16">
         <v>1669</v>
       </c>
       <c r="E16">
-        <v>2.928703762429349</v>
+        <v>-3.637</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.8430e-02</t>
+          <t>2.6345e-03</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -912,24 +912,24 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Black - Other</t>
+          <t>Asian - LatinX</t>
         </is>
       </c>
       <c r="B17">
-        <v>3.90357544807077</v>
+        <v>-0.847</v>
       </c>
       <c r="C17">
-        <v>1.859578272196758</v>
+        <v>1.433</v>
       </c>
       <c r="D17">
         <v>1669</v>
       </c>
       <c r="E17">
-        <v>2.099172434112922</v>
+        <v>-0.591</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.2081e-01</t>
+          <t>9.7642e-01</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -946,29 +946,29 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Black - white</t>
+          <t>Asian - Other</t>
         </is>
       </c>
       <c r="B18">
-        <v>4.781656234481306</v>
+        <v>-0.155</v>
       </c>
       <c r="C18">
-        <v>0.522105039937751</v>
+        <v>2.08</v>
       </c>
       <c r="D18">
         <v>1669</v>
       </c>
       <c r="E18">
-        <v>9.158418074361833</v>
+        <v>-0.075</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.6549e-12</t>
+          <t>9.9999e-01</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -980,29 +980,29 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LatinX - Other</t>
+          <t>Black - LatinX</t>
         </is>
       </c>
       <c r="B19">
-        <v>0.6918768235329751</v>
+        <v>3.212</v>
       </c>
       <c r="C19">
-        <v>2.068281599170942</v>
+        <v>1.097</v>
       </c>
       <c r="D19">
         <v>1669</v>
       </c>
       <c r="E19">
-        <v>0.3345177096824291</v>
+        <v>2.929</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>9.9730e-01</t>
+          <t>2.8430e-02</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1014,24 +1014,24 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LatinX - white</t>
+          <t>Black - Other</t>
         </is>
       </c>
       <c r="B20">
-        <v>1.569957609943511</v>
+        <v>3.904</v>
       </c>
       <c r="C20">
-        <v>1.044648031045599</v>
+        <v>1.86</v>
       </c>
       <c r="D20">
         <v>1669</v>
       </c>
       <c r="E20">
-        <v>1.502857961041791</v>
+        <v>2.099</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.6073e-01</t>
+          <t>2.2081e-01</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1048,24 +1048,24 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Other - white</t>
+          <t>LatinX - Other</t>
         </is>
       </c>
       <c r="B21">
-        <v>0.8780807864105363</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="C21">
-        <v>1.830911308717581</v>
+        <v>2.068</v>
       </c>
       <c r="D21">
         <v>1669</v>
       </c>
       <c r="E21">
-        <v>0.4795867403460232</v>
+        <v>0.335</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>9.8921e-01</t>
+          <t>9.9730e-01</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1082,24 +1082,24 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Asian - Black</t>
+          <t>White - Asian</t>
         </is>
       </c>
       <c r="B22">
-        <v>-6.690373820345723</v>
+        <v>5.34</v>
       </c>
       <c r="C22">
-        <v>1.443123057055332</v>
+        <v>1.377</v>
       </c>
       <c r="D22">
         <v>1669</v>
       </c>
       <c r="E22">
-        <v>-4.636038338960031</v>
+        <v>3.878</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.7629e-05</t>
+          <t>1.0340e-03</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1116,29 +1116,29 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Asian - LatinX</t>
+          <t>White - Black</t>
         </is>
       </c>
       <c r="B23">
-        <v>-5.635361932811954</v>
+        <v>-1.35</v>
       </c>
       <c r="C23">
-        <v>1.853088082146513</v>
+        <v>0.675</v>
       </c>
       <c r="D23">
         <v>1669</v>
       </c>
       <c r="E23">
-        <v>-3.041065336885805</v>
+        <v>-2</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.0224e-02</t>
+          <t>2.6613e-01</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1150,24 +1150,24 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Asian - Other</t>
+          <t>White - LatinX</t>
         </is>
       </c>
       <c r="B24">
-        <v>-4.677612648561678</v>
+        <v>-0.295</v>
       </c>
       <c r="C24">
-        <v>2.688879686712916</v>
+        <v>1.351</v>
       </c>
       <c r="D24">
         <v>1669</v>
       </c>
       <c r="E24">
-        <v>-1.739613963271051</v>
+        <v>-0.219</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.0984e-01</t>
+          <t>9.9949e-01</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1184,29 +1184,29 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Asian - white</t>
+          <t>White - Other</t>
         </is>
       </c>
       <c r="B25">
-        <v>-5.339965926543153</v>
+        <v>0.662</v>
       </c>
       <c r="C25">
-        <v>1.376871097143268</v>
+        <v>2.367</v>
       </c>
       <c r="D25">
         <v>1669</v>
       </c>
       <c r="E25">
-        <v>-3.878333954153379</v>
+        <v>0.28</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.0340e-03</t>
+          <t>9.9866e-01</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1218,29 +1218,29 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Black - LatinX</t>
+          <t>Asian - Black</t>
         </is>
       </c>
       <c r="B26">
-        <v>1.055011887533769</v>
+        <v>-6.69</v>
       </c>
       <c r="C26">
-        <v>1.417859515859429</v>
+        <v>1.443</v>
       </c>
       <c r="D26">
         <v>1669</v>
       </c>
       <c r="E26">
-        <v>0.7440877433433719</v>
+        <v>-4.636</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>9.4605e-01</t>
+          <t>3.7629e-05</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1252,29 +1252,29 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Black - Other</t>
+          <t>Asian - LatinX</t>
         </is>
       </c>
       <c r="B27">
-        <v>2.012761171784045</v>
+        <v>-5.635</v>
       </c>
       <c r="C27">
-        <v>2.404298164179613</v>
+        <v>1.853</v>
       </c>
       <c r="D27">
         <v>1669</v>
       </c>
       <c r="E27">
-        <v>0.8371512326429086</v>
+        <v>-3.041</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>9.1905e-01</t>
+          <t>2.0224e-02</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1286,24 +1286,24 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Black - white</t>
+          <t>Asian - Other</t>
         </is>
       </c>
       <c r="B28">
-        <v>1.35040789380257</v>
+        <v>-4.678</v>
       </c>
       <c r="C28">
-        <v>0.6750434804491192</v>
+        <v>2.689</v>
       </c>
       <c r="D28">
         <v>1669</v>
       </c>
       <c r="E28">
-        <v>2.000475425529802</v>
+        <v>-1.74</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.6613e-01</t>
+          <t>4.0984e-01</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1320,24 +1320,24 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LatinX - Other</t>
+          <t>Black - LatinX</t>
         </is>
       </c>
       <c r="B29">
-        <v>0.9577492842502764</v>
+        <v>1.055</v>
       </c>
       <c r="C29">
-        <v>2.674136241664482</v>
+        <v>1.418</v>
       </c>
       <c r="D29">
         <v>1669</v>
       </c>
       <c r="E29">
-        <v>0.3581527632466989</v>
+        <v>0.744</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>9.9648e-01</t>
+          <t>9.4605e-01</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1354,24 +1354,24 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LatinX - white</t>
+          <t>Black - Other</t>
         </is>
       </c>
       <c r="B30">
-        <v>0.2953960062688017</v>
+        <v>2.013</v>
       </c>
       <c r="C30">
-        <v>1.350653199604082</v>
+        <v>2.404</v>
       </c>
       <c r="D30">
         <v>1669</v>
       </c>
       <c r="E30">
-        <v>0.2187060352393874</v>
+        <v>0.837</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>9.9949e-01</t>
+          <t>9.1905e-01</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1388,24 +1388,24 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Other - white</t>
+          <t>LatinX - Other</t>
         </is>
       </c>
       <c r="B31">
-        <v>-0.6623532779814747</v>
+        <v>0.958</v>
       </c>
       <c r="C31">
-        <v>2.367233885307304</v>
+        <v>2.674</v>
       </c>
       <c r="D31">
         <v>1669</v>
       </c>
       <c r="E31">
-        <v>-0.2798005224969526</v>
+        <v>0.358</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>9.9866e-01</t>
+          <t>9.9648e-01</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1422,29 +1422,29 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Asian - Black</t>
+          <t>White - Asian</t>
         </is>
       </c>
       <c r="B32">
-        <v>-6.643931578199337</v>
+        <v>2.249</v>
       </c>
       <c r="C32">
-        <v>1.548943683064123</v>
+        <v>1.478</v>
       </c>
       <c r="D32">
         <v>1669</v>
       </c>
       <c r="E32">
-        <v>-4.289330626311926</v>
+        <v>1.522</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.8392e-04</t>
+          <t>5.4826e-01</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1456,29 +1456,29 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Asian - LatinX</t>
+          <t>White - Black</t>
         </is>
       </c>
       <c r="B33">
-        <v>-2.097788711794327</v>
+        <v>-4.395</v>
       </c>
       <c r="C33">
-        <v>1.988970424226407</v>
+        <v>0.725</v>
       </c>
       <c r="D33">
         <v>1669</v>
       </c>
       <c r="E33">
-        <v>-1.054710862586227</v>
+        <v>-6.066</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>8.2957e-01</t>
+          <t>1.6216e-08</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1490,24 +1490,24 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Asian - Other</t>
+          <t>White - LatinX</t>
         </is>
       </c>
       <c r="B34">
-        <v>1.137483539450685</v>
+        <v>0.151</v>
       </c>
       <c r="C34">
-        <v>2.886048549284401</v>
+        <v>1.45</v>
       </c>
       <c r="D34">
         <v>1669</v>
       </c>
       <c r="E34">
-        <v>0.3941318103372604</v>
+        <v>0.104</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>9.9491e-01</t>
+          <t>9.9997e-01</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1524,24 +1524,24 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Asian - white</t>
+          <t>White - Other</t>
         </is>
       </c>
       <c r="B35">
-        <v>-2.249185974820466</v>
+        <v>3.387</v>
       </c>
       <c r="C35">
-        <v>1.477833631641479</v>
+        <v>2.541</v>
       </c>
       <c r="D35">
         <v>1669</v>
       </c>
       <c r="E35">
-        <v>-1.521948023555412</v>
+        <v>1.333</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>5.4826e-01</t>
+          <t>6.7065e-01</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1558,24 +1558,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Black - LatinX</t>
+          <t>Asian - Black</t>
         </is>
       </c>
       <c r="B36">
-        <v>4.54614286640501</v>
+        <v>-6.644</v>
       </c>
       <c r="C36">
-        <v>1.52182762920031</v>
+        <v>1.549</v>
       </c>
       <c r="D36">
         <v>1669</v>
       </c>
       <c r="E36">
-        <v>2.987291582289065</v>
+        <v>-4.289</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2.3847e-02</t>
+          <t>1.8392e-04</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1592,29 +1592,29 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Black - Other</t>
+          <t>Asian - LatinX</t>
         </is>
       </c>
       <c r="B37">
-        <v>7.781415117650022</v>
+        <v>-2.098</v>
       </c>
       <c r="C37">
-        <v>2.580599371205175</v>
+        <v>1.989</v>
       </c>
       <c r="D37">
         <v>1669</v>
       </c>
       <c r="E37">
-        <v>3.015351861461546</v>
+        <v>-1.055</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2.1891e-02</t>
+          <t>8.2957e-01</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1626,29 +1626,29 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Black - white</t>
+          <t>Asian - Other</t>
         </is>
       </c>
       <c r="B38">
-        <v>4.394745603378871</v>
+        <v>1.137</v>
       </c>
       <c r="C38">
-        <v>0.7245427406369774</v>
+        <v>2.886</v>
       </c>
       <c r="D38">
         <v>1669</v>
       </c>
       <c r="E38">
-        <v>6.065543627578487</v>
+        <v>0.394</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1.6216e-08</t>
+          <t>9.9491e-01</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1660,29 +1660,29 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LatinX - Other</t>
+          <t>Black - LatinX</t>
         </is>
       </c>
       <c r="B39">
-        <v>3.235272251245012</v>
+        <v>4.546</v>
       </c>
       <c r="C39">
-        <v>2.870224004064415</v>
+        <v>1.522</v>
       </c>
       <c r="D39">
         <v>1669</v>
       </c>
       <c r="E39">
-        <v>1.127184584430925</v>
+        <v>2.987</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>7.9217e-01</t>
+          <t>2.3847e-02</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1694,29 +1694,29 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LatinX - white</t>
+          <t>Black - Other</t>
         </is>
       </c>
       <c r="B40">
-        <v>-0.1513972630261384</v>
+        <v>7.781</v>
       </c>
       <c r="C40">
-        <v>1.449693240856365</v>
+        <v>2.581</v>
       </c>
       <c r="D40">
         <v>1669</v>
       </c>
       <c r="E40">
-        <v>-0.1044339993864528</v>
+        <v>3.015</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>9.9997e-01</t>
+          <t>2.1891e-02</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1728,24 +1728,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Other - white</t>
+          <t>LatinX - Other</t>
         </is>
       </c>
       <c r="B41">
-        <v>-3.386669514271151</v>
+        <v>3.235</v>
       </c>
       <c r="C41">
-        <v>2.540817260909096</v>
+        <v>2.87</v>
       </c>
       <c r="D41">
         <v>1669</v>
       </c>
       <c r="E41">
-        <v>-1.332905583717348</v>
+        <v>1.127</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>6.7065e-01</t>
+          <t>7.9217e-01</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1762,29 +1762,29 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Asian - Black</t>
+          <t>White - Asian</t>
         </is>
       </c>
       <c r="B42">
-        <v>-2.676452377519153</v>
+        <v>0.246</v>
       </c>
       <c r="C42">
-        <v>0.5525156215387411</v>
+        <v>0.527</v>
       </c>
       <c r="D42">
         <v>1669</v>
       </c>
       <c r="E42">
-        <v>-4.844120732849698</v>
+        <v>0.467</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1.3729e-05</t>
+          <t>9.9023e-01</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -1796,29 +1796,29 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Asian - LatinX</t>
+          <t>White - Black</t>
         </is>
       </c>
       <c r="B43">
-        <v>-0.7001989235601537</v>
+        <v>-2.43</v>
       </c>
       <c r="C43">
-        <v>0.7094752650978936</v>
+        <v>0.258</v>
       </c>
       <c r="D43">
         <v>1669</v>
       </c>
       <c r="E43">
-        <v>-0.9869250670261774</v>
+        <v>-9.403</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>8.6129e-01</t>
+          <t>1.6522e-12</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -1830,24 +1830,24 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Asian - Other</t>
+          <t>White - LatinX</t>
         </is>
       </c>
       <c r="B44">
-        <v>-2.141268517049556</v>
+        <v>-0.454</v>
       </c>
       <c r="C44">
-        <v>1.029467323721182</v>
+        <v>0.517</v>
       </c>
       <c r="D44">
         <v>1669</v>
       </c>
       <c r="E44">
-        <v>-2.079977156836395</v>
+        <v>-0.878</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2.2920e-01</t>
+          <t>9.0515e-01</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1864,24 +1864,24 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Asian - white</t>
+          <t>White - Other</t>
         </is>
       </c>
       <c r="B45">
-        <v>-0.2463391214785702</v>
+        <v>-1.895</v>
       </c>
       <c r="C45">
-        <v>0.5271503260221786</v>
+        <v>0.906</v>
       </c>
       <c r="D45">
         <v>1669</v>
       </c>
       <c r="E45">
-        <v>-0.4673033655075574</v>
+        <v>-2.091</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>9.9023e-01</t>
+          <t>2.2445e-01</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -1898,24 +1898,24 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Black - LatinX</t>
+          <t>Asian - Black</t>
         </is>
       </c>
       <c r="B46">
-        <v>1.976253453959</v>
+        <v>-2.676</v>
       </c>
       <c r="C46">
-        <v>0.5428431954085636</v>
+        <v>0.553</v>
       </c>
       <c r="D46">
         <v>1669</v>
       </c>
       <c r="E46">
-        <v>3.640560424583749</v>
+        <v>-4.844</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2.5953e-03</t>
+          <t>1.3729e-05</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -1932,24 +1932,24 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Black - Other</t>
+          <t>Asian - LatinX</t>
         </is>
       </c>
       <c r="B47">
-        <v>0.5351838604695969</v>
+        <v>-0.7</v>
       </c>
       <c r="C47">
-        <v>0.9205121407018164</v>
+        <v>0.709</v>
       </c>
       <c r="D47">
         <v>1669</v>
       </c>
       <c r="E47">
-        <v>0.5813979379582785</v>
+        <v>-0.987</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>9.7783e-01</t>
+          <t>8.6129e-01</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -1966,29 +1966,29 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Black - white</t>
+          <t>Asian - Other</t>
         </is>
       </c>
       <c r="B48">
-        <v>2.430113256040583</v>
+        <v>-2.141</v>
       </c>
       <c r="C48">
-        <v>0.2584478616307767</v>
+        <v>1.029</v>
       </c>
       <c r="D48">
         <v>1669</v>
       </c>
       <c r="E48">
-        <v>9.40272146461899</v>
+        <v>-2.08</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1.6522e-12</t>
+          <t>2.2920e-01</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2000,29 +2000,29 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LatinX - Other</t>
+          <t>Black - LatinX</t>
         </is>
       </c>
       <c r="B49">
-        <v>-1.441069593489403</v>
+        <v>1.976</v>
       </c>
       <c r="C49">
-        <v>1.023822632740234</v>
+        <v>0.543</v>
       </c>
       <c r="D49">
         <v>1669</v>
       </c>
       <c r="E49">
-        <v>-1.407538324907332</v>
+        <v>3.641</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>6.2287e-01</t>
+          <t>2.5953e-03</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2034,24 +2034,24 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>LatinX - white</t>
+          <t>Black - Other</t>
         </is>
       </c>
       <c r="B50">
-        <v>0.4538598020815835</v>
+        <v>0.535</v>
       </c>
       <c r="C50">
-        <v>0.5171125140119812</v>
+        <v>0.921</v>
       </c>
       <c r="D50">
         <v>1669</v>
       </c>
       <c r="E50">
-        <v>0.877680949084647</v>
+        <v>0.581</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>9.0515e-01</t>
+          <t>9.7783e-01</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2068,24 +2068,24 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Other - white</t>
+          <t>LatinX - Other</t>
         </is>
       </c>
       <c r="B51">
-        <v>1.894929395570986</v>
+        <v>-1.441</v>
       </c>
       <c r="C51">
-        <v>0.9063216716507533</v>
+        <v>1.024</v>
       </c>
       <c r="D51">
         <v>1669</v>
       </c>
       <c r="E51">
-        <v>2.090791222193336</v>
+        <v>-1.408</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2.2445e-01</t>
+          <t>6.2287e-01</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2102,29 +2102,29 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Asian - Black</t>
+          <t>White - Asian</t>
         </is>
       </c>
       <c r="B52">
-        <v>0.02308365508663248</v>
+        <v>1.649</v>
       </c>
       <c r="C52">
-        <v>0.2856704017646355</v>
+        <v>0.273</v>
       </c>
       <c r="D52">
         <v>1669</v>
       </c>
       <c r="E52">
-        <v>0.0808052039834745</v>
+        <v>6.049</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>9.9999e-01</t>
+          <t>1.7970e-08</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2136,29 +2136,29 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Asian - LatinX</t>
+          <t>White - Black</t>
         </is>
       </c>
       <c r="B53">
-        <v>-0.5555949240454986</v>
+        <v>1.672</v>
       </c>
       <c r="C53">
-        <v>0.3668241695287078</v>
+        <v>0.134</v>
       </c>
       <c r="D53">
         <v>1669</v>
       </c>
       <c r="E53">
-        <v>-1.514608278836484</v>
+        <v>12.51</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>5.5305e-01</t>
+          <t>1.6044e-12</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2170,29 +2170,29 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Asian - Other</t>
+          <t>White - LatinX</t>
         </is>
       </c>
       <c r="B54">
-        <v>0.4640267688862487</v>
+        <v>1.093</v>
       </c>
       <c r="C54">
-        <v>0.5322715458288145</v>
+        <v>0.267</v>
       </c>
       <c r="D54">
         <v>1669</v>
       </c>
       <c r="E54">
-        <v>0.8717857877668436</v>
+        <v>4.088</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>9.0725e-01</t>
+          <t>4.3766e-04</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2204,24 +2204,24 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Asian - white</t>
+          <t>White - Other</t>
         </is>
       </c>
       <c r="B55">
-        <v>-1.648591846884488</v>
+        <v>2.113</v>
       </c>
       <c r="C55">
-        <v>0.2725556338221203</v>
+        <v>0.469</v>
       </c>
       <c r="D55">
         <v>1669</v>
       </c>
       <c r="E55">
-        <v>-6.048643441215449</v>
+        <v>4.508</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1.7970e-08</t>
+          <t>6.8428e-05</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2238,24 +2238,24 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Black - LatinX</t>
+          <t>Asian - Black</t>
         </is>
       </c>
       <c r="B56">
-        <v>-0.5786785791321311</v>
+        <v>0.023</v>
       </c>
       <c r="C56">
-        <v>0.2806694103882263</v>
+        <v>0.286</v>
       </c>
       <c r="D56">
         <v>1669</v>
       </c>
       <c r="E56">
-        <v>-2.061780007773892</v>
+        <v>0.081</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2.3735e-01</t>
+          <t>9.9999e-01</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2272,24 +2272,24 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Black - Other</t>
+          <t>Asian - LatinX</t>
         </is>
       </c>
       <c r="B57">
-        <v>0.4409431137996162</v>
+        <v>-0.556</v>
       </c>
       <c r="C57">
-        <v>0.4759378066653889</v>
+        <v>0.367</v>
       </c>
       <c r="D57">
         <v>1669</v>
       </c>
       <c r="E57">
-        <v>0.9264721306530372</v>
+        <v>-1.515</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>8.8671e-01</t>
+          <t>5.5305e-01</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2306,29 +2306,29 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Black - white</t>
+          <t>Asian - Other</t>
         </is>
       </c>
       <c r="B58">
-        <v>-1.67167550197112</v>
+        <v>0.464</v>
       </c>
       <c r="C58">
-        <v>0.1336268181190205</v>
+        <v>0.532</v>
       </c>
       <c r="D58">
         <v>1669</v>
       </c>
       <c r="E58">
-        <v>-12.51002998875697</v>
+        <v>0.872</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1.6044e-12</t>
+          <t>9.0725e-01</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2340,24 +2340,24 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>LatinX - Other</t>
+          <t>Black - LatinX</t>
         </is>
       </c>
       <c r="B59">
-        <v>1.019621692931747</v>
+        <v>-0.579</v>
       </c>
       <c r="C59">
-        <v>0.5293530380482131</v>
+        <v>0.281</v>
       </c>
       <c r="D59">
         <v>1669</v>
       </c>
       <c r="E59">
-        <v>1.926165752616084</v>
+        <v>-2.062</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>3.0373e-01</t>
+          <t>2.3735e-01</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2374,29 +2374,29 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>LatinX - white</t>
+          <t>Black - Other</t>
         </is>
       </c>
       <c r="B60">
-        <v>-1.092996922838989</v>
+        <v>0.441</v>
       </c>
       <c r="C60">
-        <v>0.2673657248349227</v>
+        <v>0.476</v>
       </c>
       <c r="D60">
         <v>1669</v>
       </c>
       <c r="E60">
-        <v>-4.088021841669603</v>
+        <v>0.926</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>4.3766e-04</t>
+          <t>8.8671e-01</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2408,29 +2408,29 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Other - white</t>
+          <t>LatinX - Other</t>
         </is>
       </c>
       <c r="B61">
-        <v>-2.112618615770737</v>
+        <v>1.02</v>
       </c>
       <c r="C61">
-        <v>0.4686008249819461</v>
+        <v>0.529</v>
       </c>
       <c r="D61">
         <v>1669</v>
       </c>
       <c r="E61">
-        <v>-4.508354452538853</v>
+        <v>1.926</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>6.8428e-05</t>
+          <t>3.0373e-01</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2442,29 +2442,29 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Asian - Black</t>
+          <t>White - Asian</t>
         </is>
       </c>
       <c r="B62">
-        <v>0.175754255585908</v>
+        <v>1.768</v>
       </c>
       <c r="C62">
-        <v>0.461793436466822</v>
+        <v>0.441</v>
       </c>
       <c r="D62">
         <v>1669</v>
       </c>
       <c r="E62">
-        <v>0.3805906314533233</v>
+        <v>4.013</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>9.9555e-01</t>
+          <t>5.9902e-04</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2476,29 +2476,29 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Asian - LatinX</t>
+          <t>White - Black</t>
         </is>
       </c>
       <c r="B63">
-        <v>-1.584310557309895</v>
+        <v>1.944</v>
       </c>
       <c r="C63">
-        <v>0.5929805565412292</v>
+        <v>0.216</v>
       </c>
       <c r="D63">
         <v>1669</v>
       </c>
       <c r="E63">
-        <v>-2.671774883397446</v>
+        <v>8.997999999999999</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>5.8637e-02</t>
+          <t>1.6489e-12</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -2510,24 +2510,24 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Asian - Other</t>
+          <t>White - LatinX</t>
         </is>
       </c>
       <c r="B64">
-        <v>-1.722771641112525</v>
+        <v>0.184</v>
       </c>
       <c r="C64">
-        <v>0.8604304287859357</v>
+        <v>0.432</v>
       </c>
       <c r="D64">
         <v>1669</v>
       </c>
       <c r="E64">
-        <v>-2.002220729854185</v>
+        <v>0.425</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2.6528e-01</t>
+          <t>9.9320e-01</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2544,29 +2544,29 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Asian - white</t>
+          <t>White - Other</t>
         </is>
       </c>
       <c r="B65">
-        <v>-1.767977600587828</v>
+        <v>0.045</v>
       </c>
       <c r="C65">
-        <v>0.4405930820750891</v>
+        <v>0.758</v>
       </c>
       <c r="D65">
         <v>1669</v>
       </c>
       <c r="E65">
-        <v>-4.012722106895261</v>
+        <v>0.06</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>5.9902e-04</t>
+          <t>1.0000e+00</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -2578,29 +2578,29 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Black - LatinX</t>
+          <t>Asian - Black</t>
         </is>
       </c>
       <c r="B66">
-        <v>-1.760064812895803</v>
+        <v>0.176</v>
       </c>
       <c r="C66">
-        <v>0.4537092073020672</v>
+        <v>0.462</v>
       </c>
       <c r="D66">
         <v>1669</v>
       </c>
       <c r="E66">
-        <v>-3.879279469248241</v>
+        <v>0.381</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1.0301e-03</t>
+          <t>9.9555e-01</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -2612,24 +2612,24 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Black - Other</t>
+          <t>Asian - LatinX</t>
         </is>
       </c>
       <c r="B67">
-        <v>-1.898525896698433</v>
+        <v>-1.584</v>
       </c>
       <c r="C67">
-        <v>0.7693655132867887</v>
+        <v>0.593</v>
       </c>
       <c r="D67">
         <v>1669</v>
       </c>
       <c r="E67">
-        <v>-2.4676514139395</v>
+        <v>-2.672</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>9.8552e-02</t>
+          <t>5.8637e-02</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2646,29 +2646,29 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Black - white</t>
+          <t>Asian - Other</t>
         </is>
       </c>
       <c r="B68">
-        <v>-1.943731856173736</v>
+        <v>-1.723</v>
       </c>
       <c r="C68">
-        <v>0.2160111343776905</v>
+        <v>0.86</v>
       </c>
       <c r="D68">
         <v>1669</v>
       </c>
       <c r="E68">
-        <v>-8.998294748895518</v>
+        <v>-2.002</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1.6489e-12</t>
+          <t>2.6528e-01</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -2680,29 +2680,29 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>LatinX - Other</t>
+          <t>Black - LatinX</t>
         </is>
       </c>
       <c r="B69">
-        <v>-0.1384610838026297</v>
+        <v>-1.76</v>
       </c>
       <c r="C69">
-        <v>0.8557125870738305</v>
+        <v>0.454</v>
       </c>
       <c r="D69">
         <v>1669</v>
       </c>
       <c r="E69">
-        <v>-0.161807931651569</v>
+        <v>-3.879</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>9.9985e-01</t>
+          <t>1.0301e-03</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -2714,24 +2714,24 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>LatinX - white</t>
+          <t>Black - Other</t>
         </is>
       </c>
       <c r="B70">
-        <v>-0.183667043277933</v>
+        <v>-1.899</v>
       </c>
       <c r="C70">
-        <v>0.4322034628098682</v>
+        <v>0.769</v>
       </c>
       <c r="D70">
         <v>1669</v>
       </c>
       <c r="E70">
-        <v>-0.4249550479856533</v>
+        <v>-2.468</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>9.9320e-01</t>
+          <t>9.8552e-02</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2748,24 +2748,24 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Other - white</t>
+          <t>LatinX - Other</t>
         </is>
       </c>
       <c r="B71">
-        <v>-0.04520595947530337</v>
+        <v>-0.138</v>
       </c>
       <c r="C71">
-        <v>0.757505096652927</v>
+        <v>0.856</v>
       </c>
       <c r="D71">
         <v>1669</v>
       </c>
       <c r="E71">
-        <v>-0.0596774327658627</v>
+        <v>-0.162</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1.0000e+00</t>
+          <t>9.9985e-01</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2782,24 +2782,24 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Asian - Black</t>
+          <t>White - Asian</t>
         </is>
       </c>
       <c r="B72">
-        <v>-7.441920398606352</v>
+        <v>4.764</v>
       </c>
       <c r="C72">
-        <v>1.005713079354758</v>
+        <v>0.96</v>
       </c>
       <c r="D72">
         <v>1669</v>
       </c>
       <c r="E72">
-        <v>-7.399645635891416</v>
+        <v>4.965</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>3.7907e-12</t>
+          <t>7.4964e-06</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -2816,24 +2816,24 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Asian - LatinX</t>
+          <t>White - Black</t>
         </is>
       </c>
       <c r="B73">
-        <v>-3.70475924721669</v>
+        <v>-2.678</v>
       </c>
       <c r="C73">
-        <v>1.291417881725186</v>
+        <v>0.47</v>
       </c>
       <c r="D73">
         <v>1669</v>
       </c>
       <c r="E73">
-        <v>-2.868753251478566</v>
+        <v>-5.692</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>3.3894e-02</t>
+          <t>1.4767e-07</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -2850,24 +2850,24 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Asian - Other</t>
+          <t>White - LatinX</t>
         </is>
       </c>
       <c r="B74">
-        <v>-4.157060938473222</v>
+        <v>1.059</v>
       </c>
       <c r="C74">
-        <v>1.873881410540597</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="D74">
         <v>1669</v>
       </c>
       <c r="E74">
-        <v>-2.218422636080236</v>
+        <v>1.126</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1.7330e-01</t>
+          <t>7.9306e-01</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -2884,29 +2884,29 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Asian - white</t>
+          <t>White - Other</t>
         </is>
       </c>
       <c r="B75">
-        <v>-4.764190816231011</v>
+        <v>0.607</v>
       </c>
       <c r="C75">
-        <v>0.9595420599876308</v>
+        <v>1.65</v>
       </c>
       <c r="D75">
         <v>1669</v>
       </c>
       <c r="E75">
-        <v>-4.965067207468138</v>
+        <v>0.368</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>7.4964e-06</t>
+          <t>9.9609e-01</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -2918,24 +2918,24 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Black - LatinX</t>
+          <t>Asian - Black</t>
         </is>
       </c>
       <c r="B76">
-        <v>3.737161151389662</v>
+        <v>-7.442</v>
       </c>
       <c r="C76">
-        <v>0.9881069066258839</v>
+        <v>1.006</v>
       </c>
       <c r="D76">
         <v>1669</v>
       </c>
       <c r="E76">
-        <v>3.782142525600848</v>
+        <v>-7.4</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1.5110e-03</t>
+          <t>3.7907e-12</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -2952,29 +2952,29 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Black - Other</t>
+          <t>Asian - LatinX</t>
         </is>
       </c>
       <c r="B77">
-        <v>3.28485946013313</v>
+        <v>-3.705</v>
       </c>
       <c r="C77">
-        <v>1.675556425048067</v>
+        <v>1.291</v>
       </c>
       <c r="D77">
         <v>1669</v>
       </c>
       <c r="E77">
-        <v>1.960458872663089</v>
+        <v>-2.869</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2.8601e-01</t>
+          <t>3.3894e-02</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -2986,29 +2986,29 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Black - white</t>
+          <t>Asian - Other</t>
         </is>
       </c>
       <c r="B78">
-        <v>2.677729582375341</v>
+        <v>-4.157</v>
       </c>
       <c r="C78">
-        <v>0.4704380919573975</v>
+        <v>1.874</v>
       </c>
       <c r="D78">
         <v>1669</v>
       </c>
       <c r="E78">
-        <v>5.691991418538944</v>
+        <v>-2.218</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1.4767e-07</t>
+          <t>1.7330e-01</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3020,29 +3020,29 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>LatinX - Other</t>
+          <t>Black - LatinX</t>
         </is>
       </c>
       <c r="B79">
-        <v>-0.4523016912565319</v>
+        <v>3.737</v>
       </c>
       <c r="C79">
-        <v>1.863606697343086</v>
+        <v>0.988</v>
       </c>
       <c r="D79">
         <v>1669</v>
       </c>
       <c r="E79">
-        <v>-0.2427023319359021</v>
+        <v>3.782</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>9.9923e-01</t>
+          <t>1.5110e-03</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3054,24 +3054,24 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>LatinX - white</t>
+          <t>Black - Other</t>
         </is>
       </c>
       <c r="B80">
-        <v>-1.059431569014321</v>
+        <v>3.285</v>
       </c>
       <c r="C80">
-        <v>0.9412707959125175</v>
+        <v>1.676</v>
       </c>
       <c r="D80">
         <v>1669</v>
       </c>
       <c r="E80">
-        <v>-1.125533240396832</v>
+        <v>1.96</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>7.9306e-01</t>
+          <t>2.8601e-01</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3088,24 +3088,24 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Other - white</t>
+          <t>LatinX - Other</t>
         </is>
       </c>
       <c r="B81">
-        <v>-0.6071298777577887</v>
+        <v>-0.452</v>
       </c>
       <c r="C81">
-        <v>1.649726313155326</v>
+        <v>1.864</v>
       </c>
       <c r="D81">
         <v>1669</v>
       </c>
       <c r="E81">
-        <v>-0.3680185452073987</v>
+        <v>-0.243</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>9.9609e-01</t>
+          <t>9.9923e-01</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3122,29 +3122,29 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Asian - Black</t>
+          <t>White - Asian</t>
         </is>
       </c>
       <c r="B82">
-        <v>-10.03445877333128</v>
+        <v>1.988</v>
       </c>
       <c r="C82">
-        <v>1.147461318160987</v>
+        <v>1.095</v>
       </c>
       <c r="D82">
         <v>1669</v>
       </c>
       <c r="E82">
-        <v>-8.744921170339147</v>
+        <v>1.816</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1.6447e-12</t>
+          <t>3.6456e-01</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3156,29 +3156,29 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Asian - LatinX</t>
+          <t>White - Black</t>
         </is>
       </c>
       <c r="B83">
-        <v>-2.039446518387828</v>
+        <v>-8.045999999999999</v>
       </c>
       <c r="C83">
-        <v>1.473434218248184</v>
+        <v>0.537</v>
       </c>
       <c r="D83">
         <v>1669</v>
       </c>
       <c r="E83">
-        <v>-1.384144940527169</v>
+        <v>-14.991</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>6.3797e-01</t>
+          <t>1.6044e-12</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3190,24 +3190,24 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Asian - Other</t>
+          <t>White - LatinX</t>
         </is>
       </c>
       <c r="B84">
-        <v>-2.861561446106827</v>
+        <v>-0.051</v>
       </c>
       <c r="C84">
-        <v>2.137991915940683</v>
+        <v>1.074</v>
       </c>
       <c r="D84">
         <v>1669</v>
       </c>
       <c r="E84">
-        <v>-1.338434174971043</v>
+        <v>-0.048</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>6.6716e-01</t>
+          <t>1.0000e+00</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3224,24 +3224,24 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Asian - white</t>
+          <t>White - Other</t>
         </is>
       </c>
       <c r="B85">
-        <v>-1.988107214205549</v>
+        <v>-0.873</v>
       </c>
       <c r="C85">
-        <v>1.094782815880962</v>
+        <v>1.882</v>
       </c>
       <c r="D85">
         <v>1669</v>
       </c>
       <c r="E85">
-        <v>-1.815983211798713</v>
+        <v>-0.464</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>3.6456e-01</t>
+          <t>9.9048e-01</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3258,24 +3258,24 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Black - LatinX</t>
+          <t>Asian - Black</t>
         </is>
       </c>
       <c r="B86">
-        <v>7.995012254943449</v>
+        <v>-10.034</v>
       </c>
       <c r="C86">
-        <v>1.127373678274464</v>
+        <v>1.147</v>
       </c>
       <c r="D86">
         <v>1669</v>
       </c>
       <c r="E86">
-        <v>7.091714494505899</v>
+        <v>-8.744999999999999</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2.1127e-11</t>
+          <t>1.6447e-12</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3292,29 +3292,29 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Black - Other</t>
+          <t>Asian - LatinX</t>
         </is>
       </c>
       <c r="B87">
-        <v>7.17289732722445</v>
+        <v>-2.039</v>
       </c>
       <c r="C87">
-        <v>1.911714408022102</v>
+        <v>1.473</v>
       </c>
       <c r="D87">
         <v>1669</v>
       </c>
       <c r="E87">
-        <v>3.752075779271693</v>
+        <v>-1.384</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1.6979e-03</t>
+          <t>6.3797e-01</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -3326,29 +3326,29 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Black - white</t>
+          <t>Asian - Other</t>
         </is>
       </c>
       <c r="B88">
-        <v>8.046351559125728</v>
+        <v>-2.862</v>
       </c>
       <c r="C88">
-        <v>0.5367430574303597</v>
+        <v>2.138</v>
       </c>
       <c r="D88">
         <v>1669</v>
       </c>
       <c r="E88">
-        <v>14.99106778883621</v>
+        <v>-1.338</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1.6044e-12</t>
+          <t>6.6716e-01</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -3360,29 +3360,29 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>LatinX - Other</t>
+          <t>Black - LatinX</t>
         </is>
       </c>
       <c r="B89">
-        <v>-0.822114927718999</v>
+        <v>7.995</v>
       </c>
       <c r="C89">
-        <v>2.126269053633964</v>
+        <v>1.127</v>
       </c>
       <c r="D89">
         <v>1669</v>
       </c>
       <c r="E89">
-        <v>-0.3866467069696278</v>
+        <v>7.092</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>9.9527e-01</t>
+          <t>2.1127e-11</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -3394,29 +3394,29 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>LatinX - white</t>
+          <t>Black - Other</t>
         </is>
       </c>
       <c r="B90">
-        <v>0.05133930418227917</v>
+        <v>7.173</v>
       </c>
       <c r="C90">
-        <v>1.073936344665188</v>
+        <v>1.912</v>
       </c>
       <c r="D90">
         <v>1669</v>
       </c>
       <c r="E90">
-        <v>0.04780479256271451</v>
+        <v>3.752</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1.0000e+00</t>
+          <t>1.6979e-03</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -3428,24 +3428,24 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Other - white</t>
+          <t>LatinX - Other</t>
         </is>
       </c>
       <c r="B91">
-        <v>0.8734542319012781</v>
+        <v>-0.822</v>
       </c>
       <c r="C91">
-        <v>1.882243722148447</v>
+        <v>2.126</v>
       </c>
       <c r="D91">
         <v>1669</v>
       </c>
       <c r="E91">
-        <v>0.4640494860592722</v>
+        <v>-0.387</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>9.9048e-01</t>
+          <t>9.9527e-01</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3462,29 +3462,29 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Asian - Black</t>
+          <t>White - Asian</t>
         </is>
       </c>
       <c r="B92">
-        <v>-6.890860022077968</v>
+        <v>2.284</v>
       </c>
       <c r="C92">
-        <v>1.338088689993875</v>
+        <v>1.277</v>
       </c>
       <c r="D92">
         <v>1669</v>
       </c>
       <c r="E92">
-        <v>-5.149778242359638</v>
+        <v>1.789</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2.8966e-06</t>
+          <t>3.8016e-01</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -3496,29 +3496,29 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Asian - LatinX</t>
+          <t>White - Black</t>
         </is>
       </c>
       <c r="B93">
-        <v>-1.676526771742742</v>
+        <v>-4.607</v>
       </c>
       <c r="C93">
-        <v>1.718215360887008</v>
+        <v>0.626</v>
       </c>
       <c r="D93">
         <v>1669</v>
       </c>
       <c r="E93">
-        <v>-0.9757372736309697</v>
+        <v>-7.36</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>8.6621e-01</t>
+          <t>4.5137e-12</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -3530,24 +3530,24 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Asian - Other</t>
+          <t>White - LatinX</t>
         </is>
       </c>
       <c r="B94">
-        <v>0.1134893692079749</v>
+        <v>0.608</v>
       </c>
       <c r="C94">
-        <v>2.493175810582919</v>
+        <v>1.252</v>
       </c>
       <c r="D94">
         <v>1669</v>
       </c>
       <c r="E94">
-        <v>0.04552000253100499</v>
+        <v>0.485</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1.0000e+00</t>
+          <t>9.8872e-01</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -3564,24 +3564,24 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Asian - white</t>
+          <t>White - Other</t>
         </is>
       </c>
       <c r="B95">
-        <v>-2.284226907543624</v>
+        <v>2.398</v>
       </c>
       <c r="C95">
-        <v>1.276658725435516</v>
+        <v>2.195</v>
       </c>
       <c r="D95">
         <v>1669</v>
       </c>
       <c r="E95">
-        <v>-1.789222806403794</v>
+        <v>1.092</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>3.8016e-01</t>
+          <t>8.1055e-01</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -3598,24 +3598,24 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Black - LatinX</t>
+          <t>Asian - Black</t>
         </is>
       </c>
       <c r="B96">
-        <v>5.214333250335226</v>
+        <v>-6.891</v>
       </c>
       <c r="C96">
-        <v>1.314663897092007</v>
+        <v>1.338</v>
       </c>
       <c r="D96">
         <v>1669</v>
       </c>
       <c r="E96">
-        <v>3.966286183007807</v>
+        <v>-5.15</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>7.2486e-04</t>
+          <t>2.8966e-06</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -3632,29 +3632,29 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Black - Other</t>
+          <t>Asian - LatinX</t>
         </is>
       </c>
       <c r="B97">
-        <v>7.004349391285943</v>
+        <v>-1.677</v>
       </c>
       <c r="C97">
-        <v>2.229306894608382</v>
+        <v>1.718</v>
       </c>
       <c r="D97">
         <v>1669</v>
       </c>
       <c r="E97">
-        <v>3.141940397809778</v>
+        <v>-0.976</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1.4717e-02</t>
+          <t>8.6621e-01</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -3666,29 +3666,29 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Black - white</t>
+          <t>Asian - Other</t>
         </is>
       </c>
       <c r="B98">
-        <v>4.606633114534344</v>
+        <v>0.113</v>
       </c>
       <c r="C98">
-        <v>0.6259120052354862</v>
+        <v>2.493</v>
       </c>
       <c r="D98">
         <v>1669</v>
       </c>
       <c r="E98">
-        <v>7.359873394345897</v>
+        <v>0.046</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>4.5137e-12</t>
+          <t>1.0000e+00</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -3700,29 +3700,29 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>LatinX - Other</t>
+          <t>Black - LatinX</t>
         </is>
       </c>
       <c r="B99">
-        <v>1.790016140950717</v>
+        <v>5.214</v>
       </c>
       <c r="C99">
-        <v>2.479505433012269</v>
+        <v>1.315</v>
       </c>
       <c r="D99">
         <v>1669</v>
       </c>
       <c r="E99">
-        <v>0.721924669782266</v>
+        <v>3.966</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>9.5149e-01</t>
+          <t>7.2486e-04</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -3734,29 +3734,29 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>LatinX - white</t>
+          <t>Black - Other</t>
         </is>
       </c>
       <c r="B100">
-        <v>-0.6077001358008816</v>
+        <v>7.004</v>
       </c>
       <c r="C100">
-        <v>1.252349036804951</v>
+        <v>2.229</v>
       </c>
       <c r="D100">
         <v>1669</v>
       </c>
       <c r="E100">
-        <v>-0.4852482159057457</v>
+        <v>3.142</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>9.8872e-01</t>
+          <t>1.4717e-02</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -3768,24 +3768,24 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Other - white</t>
+          <t>LatinX - Other</t>
         </is>
       </c>
       <c r="B101">
-        <v>-2.397716276751598</v>
+        <v>1.79</v>
       </c>
       <c r="C101">
-        <v>2.194940253371969</v>
+        <v>2.48</v>
       </c>
       <c r="D101">
         <v>1669</v>
       </c>
       <c r="E101">
-        <v>-1.092383390877321</v>
+        <v>0.722</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>8.1055e-01</t>
+          <t>9.5149e-01</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -3802,29 +3802,29 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Asian - Black</t>
+          <t>White - Asian</t>
         </is>
       </c>
       <c r="B102">
-        <v>-8.021027336604552</v>
+        <v>0.882</v>
       </c>
       <c r="C102">
-        <v>1.419237061268358</v>
+        <v>1.354</v>
       </c>
       <c r="D102">
         <v>1669</v>
       </c>
       <c r="E102">
-        <v>-5.651647322002878</v>
+        <v>0.651</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>1.8603e-07</t>
+          <t>9.6644e-01</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -3836,29 +3836,29 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Asian - LatinX</t>
+          <t>White - Black</t>
         </is>
       </c>
       <c r="B103">
-        <v>-0.4273344738988226</v>
+        <v>-7.139</v>
       </c>
       <c r="C103">
-        <v>1.822416509194612</v>
+        <v>0.664</v>
       </c>
       <c r="D103">
         <v>1669</v>
       </c>
       <c r="E103">
-        <v>-0.2344878197397785</v>
+        <v>-10.754</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>9.9933e-01</t>
+          <t>1.6478e-12</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -3870,24 +3870,24 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Asian - Other</t>
+          <t>White - LatinX</t>
         </is>
       </c>
       <c r="B104">
-        <v>0.7102028649233156</v>
+        <v>0.455</v>
       </c>
       <c r="C104">
-        <v>2.644374425325467</v>
+        <v>1.328</v>
       </c>
       <c r="D104">
         <v>1669</v>
       </c>
       <c r="E104">
-        <v>0.2685712197643511</v>
+        <v>0.342</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>9.9886e-01</t>
+          <t>9.9706e-01</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -3904,24 +3904,24 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Asian - white</t>
+          <t>White - Other</t>
         </is>
       </c>
       <c r="B105">
-        <v>-0.8818350967216129</v>
+        <v>1.592</v>
       </c>
       <c r="C105">
-        <v>1.354081677304965</v>
+        <v>2.328</v>
       </c>
       <c r="D105">
         <v>1669</v>
       </c>
       <c r="E105">
-        <v>-0.6512421750486523</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>9.6644e-01</t>
+          <t>9.5999e-01</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -3938,24 +3938,24 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Black - LatinX</t>
+          <t>Asian - Black</t>
         </is>
       </c>
       <c r="B106">
-        <v>7.59369286270573</v>
+        <v>-8.021000000000001</v>
       </c>
       <c r="C106">
-        <v>1.394391672104342</v>
+        <v>1.419</v>
       </c>
       <c r="D106">
         <v>1669</v>
       </c>
       <c r="E106">
-        <v>5.445882254335134</v>
+        <v>-5.652</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>5.8989e-07</t>
+          <t>1.8603e-07</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -3972,29 +3972,29 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Black - Other</t>
+          <t>Asian - LatinX</t>
         </is>
       </c>
       <c r="B107">
-        <v>8.731230201527868</v>
+        <v>-0.427</v>
       </c>
       <c r="C107">
-        <v>2.36450318235914</v>
+        <v>1.822</v>
       </c>
       <c r="D107">
         <v>1669</v>
       </c>
       <c r="E107">
-        <v>3.692627807257354</v>
+        <v>-0.234</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2.1323e-03</t>
+          <t>9.9933e-01</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4006,29 +4006,29 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Black - white</t>
+          <t>Asian - Other</t>
         </is>
       </c>
       <c r="B108">
-        <v>7.13919223988294</v>
+        <v>0.71</v>
       </c>
       <c r="C108">
-        <v>0.6638704306865212</v>
+        <v>2.644</v>
       </c>
       <c r="D108">
         <v>1669</v>
       </c>
       <c r="E108">
-        <v>10.75389399780943</v>
+        <v>0.269</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1.6478e-12</t>
+          <t>9.9886e-01</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4040,29 +4040,29 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>LatinX - Other</t>
+          <t>Black - LatinX</t>
         </is>
       </c>
       <c r="B109">
-        <v>1.137537338822138</v>
+        <v>7.594</v>
       </c>
       <c r="C109">
-        <v>2.629875007884096</v>
+        <v>1.394</v>
       </c>
       <c r="D109">
         <v>1669</v>
       </c>
       <c r="E109">
-        <v>0.4325442598647913</v>
+        <v>5.446</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>9.9272e-01</t>
+          <t>5.8989e-07</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -4074,29 +4074,29 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>LatinX - white</t>
+          <t>Black - Other</t>
         </is>
       </c>
       <c r="B110">
-        <v>-0.4545006228227902</v>
+        <v>8.731</v>
       </c>
       <c r="C110">
-        <v>1.328297727922246</v>
+        <v>2.365</v>
       </c>
       <c r="D110">
         <v>1669</v>
       </c>
       <c r="E110">
-        <v>-0.3421677333843902</v>
+        <v>3.693</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>9.9706e-01</t>
+          <t>2.1323e-03</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -4108,24 +4108,24 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Other - white</t>
+          <t>LatinX - Other</t>
         </is>
       </c>
       <c r="B111">
-        <v>-1.592037961644929</v>
+        <v>1.138</v>
       </c>
       <c r="C111">
-        <v>2.328052376610043</v>
+        <v>2.63</v>
       </c>
       <c r="D111">
         <v>1669</v>
       </c>
       <c r="E111">
-        <v>-0.6838497181765083</v>
+        <v>0.433</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>9.5999e-01</t>
+          <t>9.9272e-01</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -4142,24 +4142,24 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Asian - Black</t>
+          <t>White - Asian</t>
         </is>
       </c>
       <c r="B112">
-        <v>-1.512678563007439</v>
+        <v>-1.146</v>
       </c>
       <c r="C112">
-        <v>0.7031510053150671</v>
+        <v>0.671</v>
       </c>
       <c r="D112">
         <v>1669</v>
       </c>
       <c r="E112">
-        <v>-2.15128550136914</v>
+        <v>-1.708</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1.9907e-01</t>
+          <t>4.2933e-01</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4176,29 +4176,29 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Asian - LatinX</t>
+          <t>White - Black</t>
         </is>
       </c>
       <c r="B113">
-        <v>0.5639379594238199</v>
+        <v>-2.658</v>
       </c>
       <c r="C113">
-        <v>0.9029034229121397</v>
+        <v>0.329</v>
       </c>
       <c r="D113">
         <v>1669</v>
       </c>
       <c r="E113">
-        <v>0.6245828126389725</v>
+        <v>-8.082000000000001</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>9.7116e-01</t>
+          <t>1.6780e-12</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -4210,24 +4210,24 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Asian - Other</t>
+          <t>White - LatinX</t>
         </is>
       </c>
       <c r="B114">
-        <v>0.5948102719385771</v>
+        <v>-0.582</v>
       </c>
       <c r="C114">
-        <v>1.31013668282826</v>
+        <v>0.658</v>
       </c>
       <c r="D114">
         <v>1669</v>
       </c>
       <c r="E114">
-        <v>0.4540062725780103</v>
+        <v>-0.884</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>9.9124e-01</t>
+          <t>9.0285e-01</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4244,24 +4244,24 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Asian - white</t>
+          <t>White - Other</t>
         </is>
       </c>
       <c r="B115">
-        <v>1.145724368103582</v>
+        <v>-0.551</v>
       </c>
       <c r="C115">
-        <v>0.6708702292658525</v>
+        <v>1.153</v>
       </c>
       <c r="D115">
         <v>1669</v>
       </c>
       <c r="E115">
-        <v>1.707818171268939</v>
+        <v>-0.478</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>4.2933e-01</t>
+          <t>9.8938e-01</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4278,29 +4278,29 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Black - LatinX</t>
+          <t>Asian - Black</t>
         </is>
       </c>
       <c r="B116">
-        <v>2.076616522431259</v>
+        <v>-1.513</v>
       </c>
       <c r="C116">
-        <v>0.6908415322574023</v>
+        <v>0.703</v>
       </c>
       <c r="D116">
         <v>1669</v>
       </c>
       <c r="E116">
-        <v>3.005923103154613</v>
+        <v>-2.151</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2.2532e-02</t>
+          <t>1.9907e-01</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -4312,24 +4312,24 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Black - Other</t>
+          <t>Asian - LatinX</t>
         </is>
       </c>
       <c r="B117">
-        <v>2.107488834946016</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="C117">
-        <v>1.171476446831689</v>
+        <v>0.903</v>
       </c>
       <c r="D117">
         <v>1669</v>
       </c>
       <c r="E117">
-        <v>1.799002310841003</v>
+        <v>0.625</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>3.7442e-01</t>
+          <t>9.7116e-01</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4346,29 +4346,29 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Black - white</t>
+          <t>Asian - Other</t>
         </is>
       </c>
       <c r="B118">
-        <v>2.658402931111021</v>
+        <v>0.595</v>
       </c>
       <c r="C118">
-        <v>0.3289099287746885</v>
+        <v>1.31</v>
       </c>
       <c r="D118">
         <v>1669</v>
       </c>
       <c r="E118">
-        <v>8.082464828637304</v>
+        <v>0.454</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>1.6780e-12</t>
+          <t>9.9124e-01</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -4380,29 +4380,29 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>LatinX - Other</t>
+          <t>Black - LatinX</t>
         </is>
       </c>
       <c r="B119">
-        <v>0.03087231251475719</v>
+        <v>2.077</v>
       </c>
       <c r="C119">
-        <v>1.302953048586584</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="D119">
         <v>1669</v>
       </c>
       <c r="E119">
-        <v>0.02369410973653029</v>
+        <v>3.006</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>1.0000e+00</t>
+          <t>2.2532e-02</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -4414,24 +4414,24 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>LatinX - white</t>
+          <t>Black - Other</t>
         </is>
       </c>
       <c r="B120">
-        <v>0.5817864086797622</v>
+        <v>2.107</v>
       </c>
       <c r="C120">
-        <v>0.6580957531587748</v>
+        <v>1.171</v>
       </c>
       <c r="D120">
         <v>1669</v>
       </c>
       <c r="E120">
-        <v>0.8840452257703569</v>
+        <v>1.799</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>9.0285e-01</t>
+          <t>3.7442e-01</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -4448,24 +4448,24 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Other - white</t>
+          <t>LatinX - Other</t>
         </is>
       </c>
       <c r="B121">
-        <v>0.550914096165005</v>
+        <v>0.031</v>
       </c>
       <c r="C121">
-        <v>1.153417151872103</v>
+        <v>1.303</v>
       </c>
       <c r="D121">
         <v>1669</v>
       </c>
       <c r="E121">
-        <v>0.4776364693994887</v>
+        <v>0.024</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>9.8938e-01</t>
+          <t>1.0000e+00</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
